--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DBBBAB-703E-5549-B864-B7FA0CE0C941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6F13068-3D13-4792-B9C8-1E9055E637DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -22,21 +22,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -54,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -974,6 +960,10 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -981,18 +971,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1529,7 +1519,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="286">
@@ -1585,8 +1575,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1609,14 +1599,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1646,7 +1636,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1748,7 +1738,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1776,7 +1766,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1829,13 +1819,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1871,7 +1861,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1901,16 +1891,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1931,7 +1921,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1953,10 +1943,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1965,10 +1955,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1985,7 +1975,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1997,13 +1987,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2041,7 +2031,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2085,19 +2075,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2122,7 +2112,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2134,10 +2124,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2168,13 +2158,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2183,7 +2173,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2197,7 +2187,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2210,14 +2200,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2413,7 +2403,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2475,7 +2465,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2747,7 +2737,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2777,7 +2767,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3589,182 +3579,182 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="189" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C5" s="192" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B5" s="141" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="192" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45624</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="192" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="268"/>
-    </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B9" s="140" t="s">
+      <c r="C9" s="193" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="140" t="s">
         <v>217</v>
-      </c>
-      <c r="C9" s="193" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B10" s="140" t="s">
-        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>9267407258</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="241" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="243" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="241" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="243" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="242" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="243" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="225" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="243" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="227" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="244" t="s">
         <v>265</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="B18" s="241" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="243" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="B19" s="241" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="243" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="B20" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="243" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="B21" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="243" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
-      <c r="B22" s="227" t="s">
-        <v>231</v>
-      </c>
-      <c r="C22" s="244" t="s">
-        <v>266</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3811,9 +3801,9 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>609015</v>
@@ -3831,9 +3821,9 @@
       <c r="L25" s="150"/>
       <c r="M25" s="150"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>315906</v>
@@ -3851,9 +3841,9 @@
       <c r="L26" s="151"/>
       <c r="M26" s="151"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <f>34211+103525</f>
@@ -3873,9 +3863,9 @@
       <c r="L27" s="151"/>
       <c r="M27" s="151"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3889,9 +3879,9 @@
       <c r="L28" s="151"/>
       <c r="M28" s="151"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>12268</v>
@@ -3909,9 +3899,9 @@
       <c r="L29" s="151"/>
       <c r="M29" s="151"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>2832</v>
@@ -3929,9 +3919,9 @@
       <c r="L30" s="151"/>
       <c r="M30" s="151"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3945,9 +3935,9 @@
       <c r="L31" s="151"/>
       <c r="M31" s="151"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3961,9 +3951,9 @@
       <c r="L32" s="151"/>
       <c r="M32" s="151"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3977,9 +3967,9 @@
       <c r="L33" s="151"/>
       <c r="M33" s="151"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151">
@@ -3995,9 +3985,9 @@
       <c r="L34" s="151"/>
       <c r="M34" s="151"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151">
@@ -4014,9 +4004,9 @@
       <c r="L35" s="151"/>
       <c r="M35" s="151"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151">
@@ -4032,9 +4022,9 @@
       <c r="L36" s="151"/>
       <c r="M36" s="151"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151">
@@ -4050,9 +4040,9 @@
       <c r="L37" s="151"/>
       <c r="M37" s="151"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151">
@@ -4068,9 +4058,9 @@
       <c r="L38" s="151"/>
       <c r="M38" s="151"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151">
@@ -4087,9 +4077,9 @@
       <c r="L39" s="151"/>
       <c r="M39" s="151"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151">
@@ -4106,9 +4096,9 @@
       <c r="L40" s="151"/>
       <c r="M40" s="151"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151">
@@ -4124,9 +4114,9 @@
       <c r="L41" s="151"/>
       <c r="M41" s="151"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151">
@@ -4142,9 +4132,9 @@
       <c r="L42" s="151"/>
       <c r="M42" s="151"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151">
@@ -4161,17 +4151,17 @@
       <c r="L43" s="151"/>
       <c r="M43" s="151"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1775700934579438</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="D44" s="251">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2429906542056073</v>
+        <v>2.2378978232787774</v>
       </c>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
@@ -4183,17 +4173,17 @@
       <c r="L44" s="251"/>
       <c r="M44" s="251"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5000000000000006E-3</v>
+        <v>8.4325396825396821E-3</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0000000000000001E-3</v>
+        <v>5.9523809523809521E-3</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4232,23 +4222,23 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59">
         <f>200090+153511</f>
@@ -4259,9 +4249,9 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59">
         <v>3408</v>
@@ -4271,9 +4261,9 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59">
         <v>52250</v>
@@ -4284,9 +4274,9 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59">
         <f>8864+850</f>
@@ -4297,9 +4287,9 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59">
         <f>5437</f>
@@ -4310,9 +4300,9 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4321,9 +4311,9 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59">
         <v>92844</v>
@@ -4333,9 +4323,9 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59">
         <v>4387</v>
@@ -4346,9 +4336,9 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4356,24 +4346,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4382,9 +4372,9 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4393,9 +4383,9 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59">
         <v>51490</v>
@@ -4406,9 +4396,9 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59">
         <f>206848+253436</f>
@@ -4420,9 +4410,9 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59">
         <v>1144</v>
@@ -4433,9 +4423,9 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4444,9 +4434,9 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4454,9 +4444,9 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59">
         <f>262961+7221</f>
@@ -4466,12 +4456,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C66" s="59">
         <v>659</v>
@@ -4480,12 +4470,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59">
         <v>13463</v>
@@ -4495,12 +4485,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59">
         <f>57195+23479+18800+27746</f>
@@ -4512,9 +4502,9 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4523,9 +4513,9 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59">
         <v>177621</v>
@@ -4535,9 +4525,9 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59">
         <v>31266</v>
@@ -4548,9 +4538,9 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4558,121 +4548,121 @@
       </c>
       <c r="E72" s="250"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59">
         <v>52462</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59">
         <v>5999</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83">
         <v>387826</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59">
         <v>152946</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59">
         <v>14979</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120">
         <v>86574</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83">
         <v>339547</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59">
         <v>860681</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4680,32 +4670,32 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4721,9 +4711,9 @@
         <v>609015</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4742,9 +4732,9 @@
         <v>315906</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4763,9 +4753,9 @@
         <v>137736</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4781,9 +4771,9 @@
         <v>12268</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4802,9 +4792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4820,9 +4810,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4838,22 +4828,22 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
-        <v>3.1775700934579438</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
-        <v>3.1775700934579438</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="F98" s="255">
         <f>C98</f>
-        <v>3.1775700934579438</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4930,19 +4920,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4951,7 +4941,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4966,9 +4956,9 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4980,15 +4970,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>400</v>
+        <v>403.2</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4997,7 +4987,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -5006,9 +4996,9 @@
       <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -5017,19 +5007,19 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>3706962.9032000001</v>
+        <v>3736618.6064256001</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -5044,7 +5034,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -5053,9 +5043,9 @@
       <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5067,53 +5057,53 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.07</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5123,32 +5113,32 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5158,52 +5148,52 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.51871628777616319</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5212,155 +5202,155 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>6.2001756935379264E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.7348668779673382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.7561977551237362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>2.0144003021272054E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.153675223409998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33.343025204702656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
-        <v>0.28180623939898503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.28116638317457593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.22877761631486909</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8.4325396825396821E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>57.631563687635705</v>
+        <v>57.553879149732801</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>124.74017366739427</v>
+        <v>124.70254515596923</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>67.801839632512596</v>
+        <v>67.710446058509177</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>108.46971623251677</v>
+        <v>108.43699578779935</v>
       </c>
       <c r="H29" s="273"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5368,962 +5358,962 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6398,7 +6388,7 @@
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6406,7 +6396,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6414,24 +6404,24 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6439,17 +6429,17 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6468,10 +6458,10 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6482,7 +6472,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6490,10 +6480,10 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6540,10 +6530,10 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6591,10 +6581,10 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6642,10 +6632,10 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6693,10 +6683,10 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6744,10 +6734,10 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6795,10 +6785,10 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6846,10 +6836,10 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6897,10 +6887,10 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6948,10 +6938,10 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6999,10 +6989,10 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7050,10 +7040,10 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7101,10 +7091,10 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7152,10 +7142,10 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7203,10 +7193,10 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7254,10 +7244,10 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7305,10 +7295,10 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7356,10 +7346,10 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7407,10 +7397,10 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7458,10 +7448,10 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7509,10 +7499,10 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7560,10 +7550,10 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7611,10 +7601,10 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7662,10 +7652,10 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7713,10 +7703,10 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7764,10 +7754,10 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7815,10 +7805,10 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7866,10 +7856,10 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7917,10 +7907,10 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7968,10 +7958,10 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -8019,10 +8009,10 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8070,10 +8060,10 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8121,10 +8111,10 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8172,10 +8162,10 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8223,10 +8213,10 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8274,10 +8264,10 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8325,10 +8315,10 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8343,10 +8333,10 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8394,10 +8384,10 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8445,10 +8435,10 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8496,10 +8486,10 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8547,10 +8537,10 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8598,10 +8588,10 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8649,10 +8639,10 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8700,10 +8690,10 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8718,10 +8708,10 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8769,10 +8759,10 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8820,10 +8810,10 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8837,10 +8827,10 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8887,10 +8877,10 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8937,10 +8927,10 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8987,10 +8977,10 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -9037,1260 +9027,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10334,7 +10324,7 @@
       <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10342,14 +10332,14 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10359,12 +10349,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10378,7 +10368,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10386,9 +10376,9 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10402,14 +10392,14 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10417,23 +10407,23 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-267470.14914648677</v>
+        <v>-269609.60562197334</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2883473632908329</v>
+        <v>1.2906538136949273</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10442,9 +10432,9 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10456,7 +10446,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10465,16 +10455,16 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10491,34 +10481,34 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10535,7 +10525,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10544,9 +10534,9 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10563,7 +10553,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10572,9 +10562,9 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10591,7 +10581,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10600,9 +10590,9 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10619,7 +10609,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10628,9 +10618,9 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10647,7 +10637,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10655,9 +10645,9 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10677,9 +10667,9 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10699,9 +10689,9 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10720,9 +10710,9 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10745,9 +10735,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10772,9 +10762,9 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10793,9 +10783,9 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10812,25 +10802,25 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
         <v>329365</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="87"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="G23" s="87"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10850,9 +10840,9 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10872,16 +10862,16 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
         <v>0.96007513678814749</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10901,7 +10891,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10912,9 +10902,9 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10934,7 +10924,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10945,9 +10935,9 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10964,7 +10954,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10975,21 +10965,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11005,7 +10995,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11013,9 +11003,9 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11032,7 +11022,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11040,9 +11030,9 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11059,7 +11049,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11067,9 +11057,9 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11089,7 +11079,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11097,9 +11087,9 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11116,7 +11106,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11124,9 +11114,9 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11150,9 +11140,9 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11177,9 +11167,9 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11204,9 +11194,9 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11225,9 +11215,9 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11246,9 +11236,9 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11267,9 +11257,9 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11288,9 +11278,9 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11307,14 +11297,14 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
         <v>85048</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11323,9 +11313,9 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11342,9 +11332,9 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11361,9 +11351,9 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11380,7 +11370,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11391,9 +11381,9 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11410,7 +11400,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11421,9 +11411,9 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11440,7 +11430,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11448,9 +11438,9 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11467,7 +11457,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11475,22 +11465,22 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11502,12 +11492,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11515,18 +11505,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.7348668779673382</v>
+        <v>3.7561977551237362</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>249922.3520060624</v>
+        <v>251349.72898185992</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11535,9 +11525,9 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11546,9 +11536,9 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11561,9 +11551,9 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11574,12 +11564,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="20" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11592,7 +11582,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11601,13 +11591,13 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11615,9 +11605,9 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11636,9 +11626,9 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11657,9 +11647,9 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11678,9 +11668,9 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11693,9 +11683,9 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11714,7 +11704,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11724,13 +11714,13 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11738,9 +11728,9 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11759,9 +11749,9 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11774,9 +11764,9 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11795,10 +11785,10 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11806,39 +11796,39 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11857,9 +11847,9 @@
       <c r="I74" s="210"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11887,9 +11877,9 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11908,9 +11898,9 @@
       <c r="I76" s="211"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11938,9 +11928,9 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11968,9 +11958,9 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11999,9 +11989,9 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12028,12 +12018,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12061,9 +12051,9 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12091,9 +12081,9 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12121,9 +12111,9 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12142,9 +12132,9 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12173,9 +12163,9 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12194,83 +12184,83 @@
       <c r="I86" s="210"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0162568501421957E-2</v>
+        <v>2.9991279851204426E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0162568501421957E-2</v>
+        <v>2.9991279851204426E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0162568501421957E-2</v>
+        <v>2.9991279851204426E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
-        <v>3.1775700934579438</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="D88" s="167">
         <f>C88/C86</f>
-        <v>0.28180623939898503</v>
+        <v>0.28116638317457593</v>
       </c>
       <c r="E88" s="171">
         <f>Inputs!E98</f>
-        <v>3.1775700934579438</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="F88" s="167">
         <f>E88/E86</f>
-        <v>0.28180623939898503</v>
+        <v>0.28116638317457593</v>
       </c>
       <c r="H88" s="171">
         <f>Inputs!F98</f>
-        <v>3.1775700934579438</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="I88" s="167">
         <f>H88/H86</f>
-        <v>0.28180623939898503</v>
+        <v>0.28116638317457593</v>
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5000000000000006E-3</v>
+        <v>8.4325396825396821E-3</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5000000000000006E-3</v>
+        <v>8.4325396825396821E-3</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5000000000000006E-3</v>
+        <v>8.4325396825396821E-3</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12278,32 +12268,32 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
@@ -12317,24 +12307,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>194.41270533222331</v>
+        <v>194.6931921131534</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>194.41270533222331</v>
+        <v>194.6931921131534</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12342,26 +12332,26 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>49.263575960304472</v>
+        <v>49.247101533453979</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>49.263575960304472</v>
+        <v>49.247101533453979</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12372,69 +12362,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>895764.17736258602</v>
+        <v>897056.53122470411</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>96.657474137583222</v>
+        <v>96.796925639620369</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>96.657474137583222</v>
+        <v>96.796925639620369</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>137.3253507375874</v>
+        <v>137.52347536891054</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>267416.91664648679</v>
+        <v>269556.25197965867</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>28.855634505070629</v>
+        <v>29.086479581111192</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12453,164 +12443,164 @@
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>628347.26071609929</v>
+        <v>627500.2792450455</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>57.631563687635705</v>
+        <v>57.553879149732801</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>67.801839632512596</v>
+        <v>67.710446058509177</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>67.801839632512596</v>
+        <v>67.710446058509177</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>67.801839632512596</v>
+        <v>67.710446058509191</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>108.46971623251677</v>
+        <v>108.43699578779935</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>226983.86156713407</v>
+        <v>226907.95499821907</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>20.81879828530397</v>
+        <v>20.811836188810148</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>24.492703865063493</v>
+        <v>24.484513163306055</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>24.492703865063493</v>
+        <v>24.484513163306055</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>24.492703865063493</v>
+        <v>24.484513163306055</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>34.797817538601421</v>
+        <v>34.786180663112347</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>427665.56114161666</v>
+        <v>427204.11712163221</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>39.225180986469837</v>
+        <v>39.182857669271471</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>46.147271748788043</v>
+        <v>46.097479610907612</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>46.147271748788043</v>
+        <v>46.097479610907612</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>46.147271748788043</v>
+        <v>46.097479610907627</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>71.633766885559098</v>
+        <v>71.611588225455847</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6F13068-3D13-4792-B9C8-1E9055E637DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{955B209B-A173-430A-84D9-5759E61A71A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,22 +944,22 @@
     <t>騰訊控股</t>
   </si>
   <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
     <t>C0009</t>
   </si>
   <si>
     <t>CNY</t>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
     <t>agree</t>
   </si>
   <si>
     <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Tier 3</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>HKD</t>
@@ -3575,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3629,7 +3629,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E8" s="268"/>
     </row>
@@ -3638,7 +3638,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3654,7 +3654,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3686,7 +3686,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3703,7 +3703,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3748,7 +3748,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4157,11 +4157,11 @@
       </c>
       <c r="C44" s="251">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="D44" s="251">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2378978232787774</v>
+        <v>2.2379673951321539</v>
       </c>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
@@ -4179,11 +4179,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4325396825396821E-3</v>
+        <v>8.4283589489340602E-3</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9523809523809521E-3</v>
+        <v>5.9494298463063956E-3</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4834,16 +4834,16 @@
       </c>
       <c r="C98" s="238">
         <f>C44</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="F98" s="255">
         <f>C98</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4917,7 +4917,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>403.2</v>
+        <v>403.4</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>3736618.6064256001</v>
+        <v>3738472.0878771995</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5060,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.7561977551237362</v>
+        <v>3.7581777791975761</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.343025204702656</v>
+        <v>33.360601487130786</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
-        <v>0.28116638317457593</v>
+        <v>0.28117512408588169</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.4325396825396821E-3</v>
+        <v>8.4283589489340602E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5305,20 +5305,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>57.553879149732801</v>
+        <v>57.532747031356266</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>124.70254515596923</v>
+        <v>124.66890635801246</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>67.710446058509177</v>
+        <v>67.685584742772079</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>108.43699578779935</v>
+        <v>108.40774465914129</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -6382,7 +6382,7 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
@@ -10320,8 +10320,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10414,11 +10414,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-269609.60562197334</v>
+        <v>-269743.31242168805</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2906538136949273</v>
+        <v>1.2907979568947376</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11505,11 +11505,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.7561977551237362</v>
+        <v>3.7581777791975761</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>251349.72898185992</v>
+        <v>251482.22427278501</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12190,17 +12190,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9991279851204426E-2</v>
+        <v>2.9975478721082437E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9991279851204426E-2</v>
+        <v>2.9975478721082437E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9991279851204426E-2</v>
+        <v>2.9975478721082437E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12211,27 +12211,27 @@
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="D88" s="167">
         <f>C88/C86</f>
-        <v>0.28116638317457593</v>
+        <v>0.28117512408588169</v>
       </c>
       <c r="E88" s="171">
         <f>Inputs!E98</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="F88" s="167">
         <f>E88/E86</f>
-        <v>0.28116638317457593</v>
+        <v>0.28117512408588169</v>
       </c>
       <c r="H88" s="171">
         <f>Inputs!F98</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="I88" s="167">
         <f>H88/H86</f>
-        <v>0.28116638317457593</v>
+        <v>0.28117512408588169</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12241,17 +12241,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4325396825396821E-3</v>
+        <v>8.4283589489340602E-3</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4325396825396821E-3</v>
+        <v>8.4283589489340602E-3</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4325396825396821E-3</v>
+        <v>8.4283589489340602E-3</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12311,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>194.6931921131534</v>
+        <v>194.67220662098569</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>194.6931921131534</v>
+        <v>194.67220662098569</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12336,14 +12336,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>49.247101533453979</v>
+        <v>49.246080705103381</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>49.247101533453979</v>
+        <v>49.246080705103381</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12386,21 +12386,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>897056.53122470411</v>
+        <v>896959.83974512178</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>96.796925639620369</v>
+        <v>96.786492141135795</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>96.796925639620369</v>
+        <v>96.786492141135795</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>137.52347536891054</v>
+        <v>137.508652057505</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12410,14 +12410,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>269556.25197965867</v>
+        <v>269689.96043798188</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>29.086479581111192</v>
+        <v>29.100907398363724</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12449,27 +12449,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>627500.2792450455</v>
+        <v>627269.8793071399</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>57.553879149732801</v>
+        <v>57.532747031356266</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>67.710446058509177</v>
+        <v>67.685584742772079</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>67.710446058509177</v>
+        <v>67.685584742772079</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>67.710446058509191</v>
+        <v>67.685584742772065</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>108.43699578779935</v>
+        <v>108.40774465914129</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12510,27 +12510,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>226907.95499821907</v>
+        <v>226903.25149149023</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>20.811836188810148</v>
+        <v>20.811404786519493</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>24.484513163306055</v>
+        <v>24.484005631199405</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>24.484513163306055</v>
+        <v>24.484005631199405</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>24.484513163306055</v>
+        <v>24.484005631199405</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>34.786180663112347</v>
+        <v>34.785459590839579</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12571,27 +12571,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>427204.11712163221</v>
+        <v>427086.56539931515</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>39.182857669271471</v>
+        <v>39.172075908937877</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>46.097479610907612</v>
+        <v>46.084795186985744</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>46.097479610907612</v>
+        <v>46.084795186985744</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>46.097479610907627</v>
+        <v>46.084795186985737</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>71.611588225455847</v>
+        <v>71.596602124990426</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{955B209B-A173-430A-84D9-5759E61A71A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EA8526-47C0-4CC0-ABDF-A0A90DC46EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4157,11 +4157,11 @@
       </c>
       <c r="C44" s="251">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1704538097705512</v>
+        <v>3.1701581477762324</v>
       </c>
       <c r="D44" s="251">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2379673951321539</v>
+        <v>2.2377586925479287</v>
       </c>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
@@ -4179,11 +4179,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4283589489340602E-3</v>
+        <v>8.4075173095944609E-3</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9494298463063956E-3</v>
+        <v>5.9347181008902079E-3</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4834,16 +4834,16 @@
       </c>
       <c r="C98" s="238">
         <f>C44</f>
-        <v>3.1704538097705512</v>
+        <v>3.1701581477762324</v>
       </c>
       <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
-        <v>3.1704538097705512</v>
+        <v>3.1701581477762324</v>
       </c>
       <c r="F98" s="255">
         <f>C98</f>
-        <v>3.1704538097705512</v>
+        <v>3.1701581477762324</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>403.4</v>
+        <v>404.4</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>3738472.0878771995</v>
+        <v>3747739.4951351997</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5060,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.7581777791975761</v>
+        <v>3.7671426962373289</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.360601487130786</v>
+        <v>33.440181284122787</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
-        <v>0.28117512408588169</v>
+        <v>0.2811489029822391</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.4283589489340602E-3</v>
+        <v>8.4075173095944609E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5305,20 +5305,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>57.532747031356266</v>
+        <v>57.450613803089915</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>124.66890635801246</v>
+        <v>124.54593621012984</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>67.685584742772079</v>
+        <v>67.588957415399904</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>108.40774465914129</v>
+        <v>108.30081409576509</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10414,11 +10414,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-269743.31242168805</v>
+        <v>-270411.85968912981</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2907979568947376</v>
+        <v>1.2915186871983522</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11505,11 +11505,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.7581777791975761</v>
+        <v>3.7671426962373289</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>251482.22427278501</v>
+        <v>252082.12066141711</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12190,17 +12190,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9975478721082437E-2</v>
+        <v>2.9904144104469746E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9975478721082437E-2</v>
+        <v>2.9904144104469746E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9975478721082437E-2</v>
+        <v>2.9904144104469746E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12211,27 +12211,27 @@
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
-        <v>3.1704538097705512</v>
+        <v>3.1701581477762324</v>
       </c>
       <c r="D88" s="167">
         <f>C88/C86</f>
-        <v>0.28117512408588169</v>
+        <v>0.2811489029822391</v>
       </c>
       <c r="E88" s="171">
         <f>Inputs!E98</f>
-        <v>3.1704538097705512</v>
+        <v>3.1701581477762324</v>
       </c>
       <c r="F88" s="167">
         <f>E88/E86</f>
-        <v>0.28117512408588169</v>
+        <v>0.2811489029822391</v>
       </c>
       <c r="H88" s="171">
         <f>Inputs!F98</f>
-        <v>3.1704538097705512</v>
+        <v>3.1701581477762324</v>
       </c>
       <c r="I88" s="167">
         <f>H88/H86</f>
-        <v>0.28117512408588169</v>
+        <v>0.2811489029822391</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12241,17 +12241,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4283589489340602E-3</v>
+        <v>8.4075173095944609E-3</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4283589489340602E-3</v>
+        <v>8.4075173095944609E-3</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4283589489340602E-3</v>
+        <v>8.4075173095944609E-3</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12311,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>194.67220662098569</v>
+        <v>194.62295202122087</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>194.67220662098569</v>
+        <v>194.62295202122087</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12336,14 +12336,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>49.246080705103381</v>
+        <v>49.240991961714485</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>49.246080705103381</v>
+        <v>49.240991961714485</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12386,21 +12386,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>896959.83974512178</v>
+        <v>896732.89724172803</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>96.786492141135795</v>
+        <v>96.762003900026301</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>96.786492141135795</v>
+        <v>96.762003900026301</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>137.508652057505</v>
+        <v>137.47386058039149</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12410,14 +12410,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>269689.96043798188</v>
+        <v>270358.50272959808</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>29.100907398363724</v>
+        <v>29.173046484626401</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12449,27 +12449,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>627269.8793071399</v>
+        <v>626374.39451212995</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>57.532747031356266</v>
+        <v>57.450613803089915</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>67.685584742772079</v>
+        <v>67.588957415399904</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>67.685584742772079</v>
+        <v>67.588957415399904</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>67.685584742772065</v>
+        <v>67.588957415399904</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>108.40774465914129</v>
+        <v>108.30081409576509</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12510,27 +12510,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>226903.25149149023</v>
+        <v>226879.80490641354</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>20.811404786519493</v>
+        <v>20.809254282418362</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>24.484005631199405</v>
+        <v>24.481475626374543</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>24.484005631199405</v>
+        <v>24.481475626374543</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>24.484005631199405</v>
+        <v>24.481475626374543</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>34.785459590839579</v>
+        <v>34.781865106263588</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12571,27 +12571,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>427086.56539931515</v>
+        <v>426627.0997092718</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>39.172075908937877</v>
+        <v>39.129934042754137</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>46.084795186985744</v>
+        <v>46.035216520887225</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>46.084795186985744</v>
+        <v>46.035216520887225</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>46.084795186985737</v>
+        <v>46.035216520887225</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>71.596602124990426</v>
+        <v>71.541339601014343</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EA8526-47C0-4CC0-ABDF-A0A90DC46EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC60E949-16A9-4599-9FEF-713347D939FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4157,11 +4157,11 @@
       </c>
       <c r="C44" s="251">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1701581477762324</v>
+        <v>3.1702566956470193</v>
       </c>
       <c r="D44" s="251">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2377586925479287</v>
+        <v>2.2378282557508369</v>
       </c>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4075173095944609E-3</v>
+        <v>8.4075173095944627E-3</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4834,16 +4834,16 @@
       </c>
       <c r="C98" s="238">
         <f>C44</f>
-        <v>3.1701581477762324</v>
+        <v>3.1702566956470193</v>
       </c>
       <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
-        <v>3.1701581477762324</v>
+        <v>3.1702566956470193</v>
       </c>
       <c r="F98" s="255">
         <f>C98</f>
-        <v>3.1701581477762324</v>
+        <v>3.1702566956470193</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -5060,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.7671426962373289</v>
+        <v>3.7672598020328003</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.440181284122787</v>
+        <v>33.441220809127742</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
-        <v>0.2811489029822391</v>
+        <v>0.28115764280671202</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.4075173095944609E-3</v>
+        <v>8.4075173095944627E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5305,20 +5305,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>57.450613803089915</v>
+        <v>57.447685956890851</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>124.54593621012984</v>
+        <v>124.54030836096759</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>67.588957415399904</v>
+        <v>67.585512890459825</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>108.30081409576509</v>
+        <v>108.29592031388486</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10414,11 +10414,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-270411.85968912981</v>
+        <v>-270411.85803052131</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2915186871983522</v>
+        <v>1.291518685410282</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11505,11 +11505,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.7671426962373289</v>
+        <v>3.7672598020328003</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>252082.12066141711</v>
+        <v>252089.95691282686</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12190,17 +12190,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9904144104469746E-2</v>
+        <v>2.9903214529986632E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9904144104469746E-2</v>
+        <v>2.9903214529986632E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9904144104469746E-2</v>
+        <v>2.9903214529986632E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12211,27 +12211,27 @@
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
-        <v>3.1701581477762324</v>
+        <v>3.1702566956470193</v>
       </c>
       <c r="D88" s="167">
         <f>C88/C86</f>
-        <v>0.2811489029822391</v>
+        <v>0.28115764280671202</v>
       </c>
       <c r="E88" s="171">
         <f>Inputs!E98</f>
-        <v>3.1701581477762324</v>
+        <v>3.1702566956470193</v>
       </c>
       <c r="F88" s="167">
         <f>E88/E86</f>
-        <v>0.2811489029822391</v>
+        <v>0.28115764280671202</v>
       </c>
       <c r="H88" s="171">
         <f>Inputs!F98</f>
-        <v>3.1701581477762324</v>
+        <v>3.1702566956470193</v>
       </c>
       <c r="I88" s="167">
         <f>H88/H86</f>
-        <v>0.2811489029822391</v>
+        <v>0.28115764280671202</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12241,17 +12241,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4075173095944609E-3</v>
+        <v>8.4075173095944627E-3</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4075173095944609E-3</v>
+        <v>8.4075173095944627E-3</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4075173095944609E-3</v>
+        <v>8.4075173095944627E-3</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12311,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>194.62295202122087</v>
+        <v>194.61602385122512</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>194.62295202122087</v>
+        <v>194.61602385122512</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12386,21 +12386,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>896732.89724172803</v>
+        <v>896700.97542629798</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>96.762003900026301</v>
+        <v>96.758559375086222</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>96.762003900026301</v>
+        <v>96.758559375086222</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>137.47386058039149</v>
+        <v>137.46896679851127</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12410,14 +12410,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>270358.50272959808</v>
+        <v>270358.50272959814</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>29.173046484626401</v>
+        <v>29.173046484626408</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12449,27 +12449,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>626374.39451212995</v>
+        <v>626342.4726966999</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>57.450613803089915</v>
+        <v>57.447685956890851</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>67.588957415399904</v>
+        <v>67.58551289045981</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>67.588957415399904</v>
+        <v>67.585512890459825</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>67.588957415399904</v>
+        <v>67.585512890459825</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>108.30081409576509</v>
+        <v>108.29592031388486</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12571,27 +12571,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>426627.0997092718</v>
+        <v>426611.13880155672</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>39.129934042754137</v>
+        <v>39.128470119654608</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>46.035216520887225</v>
+        <v>46.033494258417178</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>46.035216520887225</v>
+        <v>46.033494258417186</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>46.035216520887225</v>
+        <v>46.033494258417186</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>71.541339601014343</v>
+        <v>71.538892710074222</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC60E949-16A9-4599-9FEF-713347D939FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6523D52-9CD5-408D-8B10-00FD71949B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4157,11 +4157,11 @@
       </c>
       <c r="C44" s="251">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1702566956470193</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="D44" s="251">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2378282557508369</v>
+        <v>2.2378978232787774</v>
       </c>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4075173095944627E-3</v>
+        <v>8.4075173095944609E-3</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4672,7 +4672,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4834,16 +4834,16 @@
       </c>
       <c r="C98" s="238">
         <f>C44</f>
-        <v>3.1702566956470193</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
-        <v>3.1702566956470193</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="F98" s="255">
         <f>C98</f>
-        <v>3.1702566956470193</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -5060,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.7672598020328003</v>
+        <v>3.7673769151092231</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.441220809127742</v>
+        <v>33.442260398764269</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
-        <v>0.28115764280671202</v>
+        <v>0.28116638317457593</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.4075173095944627E-3</v>
+        <v>8.4075173095944609E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5305,20 +5305,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>57.447685956890851</v>
+        <v>57.444758135107911</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>124.54030836096759</v>
+        <v>124.53468055873761</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>67.585512890459825</v>
+        <v>67.582068394244601</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>108.29592031388486</v>
+        <v>108.29102657281531</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10414,11 +10414,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-270411.85803052131</v>
+        <v>-270411.85637191276</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.291518685410282</v>
+        <v>1.2915186836222117</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11505,11 +11505,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.7672598020328003</v>
+        <v>3.7673769151092231</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>252089.95691282686</v>
+        <v>252097.79365144877</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12190,17 +12190,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9903214529986632E-2</v>
+        <v>2.9902284955503525E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9903214529986632E-2</v>
+        <v>2.9902284955503525E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9903214529986632E-2</v>
+        <v>2.9902284955503525E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12211,27 +12211,27 @@
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
-        <v>3.1702566956470193</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="D88" s="167">
         <f>C88/C86</f>
-        <v>0.28115764280671202</v>
+        <v>0.28116638317457593</v>
       </c>
       <c r="E88" s="171">
         <f>Inputs!E98</f>
-        <v>3.1702566956470193</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="F88" s="167">
         <f>E88/E86</f>
-        <v>0.28115764280671202</v>
+        <v>0.28116638317457593</v>
       </c>
       <c r="H88" s="171">
         <f>Inputs!F98</f>
-        <v>3.1702566956470193</v>
+        <v>3.1703552496449348</v>
       </c>
       <c r="I88" s="167">
         <f>H88/H86</f>
-        <v>0.28115764280671202</v>
+        <v>0.28116638317457593</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12241,17 +12241,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4075173095944627E-3</v>
+        <v>8.4075173095944609E-3</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4075173095944627E-3</v>
+        <v>8.4075173095944609E-3</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4075173095944627E-3</v>
+        <v>8.4075173095944609E-3</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12311,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>194.61602385122512</v>
+        <v>194.60909573900534</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>194.61602385122512</v>
+        <v>194.60909573900534</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12336,14 +12336,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>49.240991961714485</v>
+        <v>49.240991961714478</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>49.240991961714485</v>
+        <v>49.240991961714478</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12386,21 +12386,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>896700.97542629798</v>
+        <v>896669.05387707299</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>96.758559375086222</v>
+        <v>96.755114878871012</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>96.758559375086222</v>
+        <v>96.755114878871012</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>137.46896679851127</v>
+        <v>137.46407305744171</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12410,14 +12410,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>270358.50272959814</v>
+        <v>270358.50272959808</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>29.173046484626408</v>
+        <v>29.173046484626401</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12449,27 +12449,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>626342.4726966999</v>
+        <v>626310.55114747491</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>57.447685956890851</v>
+        <v>57.444758135107911</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>67.58551289045981</v>
+        <v>67.582068394244615</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>67.585512890459825</v>
+        <v>67.582068394244601</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>67.585512890459825</v>
+        <v>67.582068394244601</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>108.29592031388486</v>
+        <v>108.29102657281531</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12510,27 +12510,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>226879.80490641354</v>
+        <v>226879.80490641351</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>20.809254282418362</v>
+        <v>20.809254282418358</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>24.481475626374543</v>
+        <v>24.481475626374539</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>24.481475626374543</v>
+        <v>24.481475626374539</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>24.481475626374543</v>
+        <v>24.481475626374539</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>34.781865106263588</v>
+        <v>34.781865106263581</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12571,27 +12571,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>426611.13880155672</v>
+        <v>426595.17802694428</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>39.128470119654608</v>
+        <v>39.127006208763135</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>46.033494258417178</v>
+        <v>46.031772010309581</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>46.033494258417186</v>
+        <v>46.031772010309567</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>46.033494258417186</v>
+        <v>46.031772010309567</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>71.538892710074222</v>
+        <v>71.536445839539454</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6523D52-9CD5-408D-8B10-00FD71949B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E7F43B-FFC5-4EC3-B19E-F2E8E7BF03C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4157,11 +4157,11 @@
       </c>
       <c r="C44" s="251">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="D44" s="251">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2378978232787774</v>
+        <v>2.2379673951321539</v>
       </c>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
@@ -4834,16 +4834,16 @@
       </c>
       <c r="C98" s="238">
         <f>C44</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="F98" s="255">
         <f>C98</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -5060,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5109,7 +5109,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5156,7 +5156,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.7673769151092231</v>
+        <v>3.7674940354672777</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.442260398764269</v>
+        <v>33.443300053038399</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
-        <v>0.28116638317457593</v>
+        <v>0.28117512408588169</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5305,20 +5305,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>57.444758135107911</v>
+        <v>61.01743554859636</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>124.53468055873761</v>
+        <v>133.72959981564372</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>67.582068394244601</v>
+        <v>71.785218292466311</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>108.29102657281531</v>
+        <v>116.28660853534237</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10414,11 +10414,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-270411.85637191276</v>
+        <v>-270411.85471330426</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2915186836222117</v>
+        <v>1.2915186818341415</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11505,11 +11505,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.7673769151092231</v>
+        <v>3.7674940354672777</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>252097.79365144877</v>
+        <v>252105.63087732837</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12190,17 +12190,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9902284955503525E-2</v>
+        <v>2.9901355381020414E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9902284955503525E-2</v>
+        <v>2.9901355381020414E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9902284955503525E-2</v>
+        <v>2.9901355381020414E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12211,27 +12211,27 @@
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="D88" s="167">
         <f>C88/C86</f>
-        <v>0.28116638317457593</v>
+        <v>0.28117512408588169</v>
       </c>
       <c r="E88" s="171">
         <f>Inputs!E98</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="F88" s="167">
         <f>E88/E86</f>
-        <v>0.28116638317457593</v>
+        <v>0.28117512408588169</v>
       </c>
       <c r="H88" s="171">
         <f>Inputs!F98</f>
-        <v>3.1703552496449348</v>
+        <v>3.1704538097705512</v>
       </c>
       <c r="I88" s="167">
         <f>H88/H86</f>
-        <v>0.28116638317457593</v>
+        <v>0.28117512408588169</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12311,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>194.60909573900534</v>
+        <v>203.06313149693347</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>194.60909573900534</v>
+        <v>203.06313149693347</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12336,14 +12336,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>49.240991961714478</v>
+        <v>51.381904655702066</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>49.240991961714478</v>
+        <v>51.381904655702066</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12386,21 +12386,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>896669.05387707299</v>
+        <v>935621.35575031477</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>96.755114878871012</v>
+        <v>100.95826477709272</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>96.755114878871012</v>
+        <v>100.95826477709272</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>137.46407305744171</v>
+        <v>145.45965501996878</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12410,14 +12410,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>270358.50272959808</v>
+        <v>270358.50272959814</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>29.173046484626401</v>
+        <v>29.173046484626408</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12449,27 +12449,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>626310.55114747491</v>
+        <v>665262.85302071669</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>57.444758135107911</v>
+        <v>61.01743554859636</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>67.582068394244615</v>
+        <v>71.785218292466311</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>67.582068394244601</v>
+        <v>71.785218292466311</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>67.582068394244601</v>
+        <v>71.785218292466311</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>108.29102657281531</v>
+        <v>116.28660853534237</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12510,27 +12510,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>226879.80490641351</v>
+        <v>236744.14425017062</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>20.809254282418358</v>
+        <v>21.714004468610462</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>24.481475626374539</v>
+        <v>25.545887610129956</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>24.481475626374539</v>
+        <v>25.545887610129956</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>24.481475626374539</v>
+        <v>25.545887610129956</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>34.781865106263581</v>
+        <v>36.806258577767565</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12571,27 +12571,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>426595.17802694428</v>
+        <v>451003.49863544363</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>39.127006208763135</v>
+        <v>41.365720008603411</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>46.031772010309581</v>
+        <v>48.665552951298132</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>46.031772010309567</v>
+        <v>48.665552951298132</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>46.031772010309567</v>
+        <v>48.665552951298132</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>71.536445839539454</v>
+        <v>76.546433556554973</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E7F43B-FFC5-4EC3-B19E-F2E8E7BF03C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5B5797-452D-40F1-B188-4772E855CF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -983,6 +983,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1522,7 +1523,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1822,9 +1823,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2159,6 +2157,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3600,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3604,7 +3608,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3612,7 +3616,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45624</v>
       </c>
     </row>
@@ -3620,7 +3624,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3628,16 +3632,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>262</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3645,7 +3649,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>9267407258</v>
       </c>
     </row>
@@ -3653,101 +3657,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>267</v>
       </c>
       <c r="D22" s="24"/>
@@ -3805,419 +3809,419 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>609015</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>554552</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>315906</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>315806</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <f>34211+103525</f>
         <v>137736</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <f>29229+106696</f>
         <v>135925</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>12268</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>9352</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>2832</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>466</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151">
+      <c r="C34" s="217"/>
+      <c r="D34" s="150">
         <v>22554271</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151">
+      <c r="C35" s="217"/>
+      <c r="D35" s="150">
         <f>431184</f>
         <v>431184</v>
       </c>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151">
+      <c r="C36" s="217"/>
+      <c r="D36" s="150">
         <v>2258059</v>
       </c>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151">
+      <c r="C37" s="217"/>
+      <c r="D37" s="150">
         <v>7382230</v>
       </c>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151">
+      <c r="C38" s="217"/>
+      <c r="D38" s="150">
         <v>2478102</v>
       </c>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151">
+      <c r="C39" s="217"/>
+      <c r="D39" s="150">
         <f>504914+87402</f>
         <v>592316</v>
       </c>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151">
+      <c r="C40" s="217"/>
+      <c r="D40" s="150">
         <f>872836+171260</f>
         <v>1044096</v>
       </c>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151">
+      <c r="C41" s="217"/>
+      <c r="D41" s="150">
         <v>26334346</v>
       </c>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151">
+      <c r="C42" s="217"/>
+      <c r="D42" s="150">
         <v>1389487</v>
       </c>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151">
+      <c r="C43" s="217"/>
+      <c r="D43" s="150">
         <f>211741+3338+99866+1800+540000+8670910+10440941</f>
         <v>19968596</v>
       </c>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1704538097705512</v>
-      </c>
-      <c r="D44" s="251">
+        <v>3.17336650558109</v>
+      </c>
+      <c r="D44" s="250">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2379673951321539</v>
-      </c>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+        <v>2.2400234157042989</v>
+      </c>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4075173095944609E-3</v>
-      </c>
-      <c r="D45" s="153">
+        <v>8.4325396825396821E-3</v>
+      </c>
+      <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9347181008902079E-3</v>
-      </c>
-      <c r="E45" s="153" t="str">
+        <v>5.9523809523809521E-3</v>
+      </c>
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4226,10 +4230,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4345,7 +4349,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4357,7 +4361,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4377,7 +4381,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4455,7 +4459,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4469,7 +4473,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4484,7 +4488,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4539,14 +4543,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4648,7 +4652,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4656,19 +4660,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4682,14 +4687,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4701,12 +4706,12 @@
         <f>C25</f>
         <v>609015</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>609015</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>609015</v>
       </c>
@@ -4719,15 +4724,15 @@
         <f>C26</f>
         <v>315906</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.51871628777616319</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>315906</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>315906</v>
       </c>
@@ -4740,15 +4745,15 @@
         <f>C27+C28</f>
         <v>137736</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.22616191719415779</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>137736</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>137736</v>
       </c>
@@ -4761,12 +4766,12 @@
         <f>C29</f>
         <v>12268</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>12268</v>
       </c>
@@ -4779,15 +4784,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4800,12 +4805,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4818,12 +4823,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>3776</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>6.2001756935379264E-3</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>3776</v>
       </c>
@@ -4832,18 +4837,18 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
-        <v>3.1704538097705512</v>
-      </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+        <v>3.17336650558109</v>
+      </c>
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
-        <v>3.1704538097705512</v>
-      </c>
-      <c r="F98" s="255">
+        <v>3.17336650558109</v>
+      </c>
+      <c r="F98" s="254">
         <f>C98</f>
-        <v>3.1704538097705512</v>
+        <v>3.17336650558109</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4960,17 +4965,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0700.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>404.4</v>
+        <v>403.2</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4980,40 +4985,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>騰訊控股</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>9267407258</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3747739.4951351997</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>3736618.6064256001</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5021,11 +5026,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -5036,22 +5041,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0009</v>
       </c>
@@ -5060,7 +5065,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5080,7 +5085,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5091,7 +5096,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5105,11 +5110,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5118,7 +5123,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5129,7 +5134,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5140,10 +5145,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5155,10 +5160,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5180,14 +5185,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.51871628777616319</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5195,7 +5200,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.22616191719415779</v>
       </c>
@@ -5206,7 +5211,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>6.2001756935379264E-3</v>
       </c>
@@ -5218,64 +5223,64 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.7674940354672777</v>
+        <v>3.7597654539766503</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.0144003021272054E-2</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.443300053038399</v>
+        <v>33.374694962401975</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.28117512408588169</v>
+        <v>0.28143343966311191</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.22877761631486909</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.4075173095944609E-3</v>
+        <v>8.4325396825396821E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5294,10 +5299,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5305,22 +5310,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>61.01743554859636</v>
+        <v>57.464449464248787</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>133.72959981564372</v>
+        <v>124.53064514951041</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>71.785218292466311</v>
-      </c>
-      <c r="G29" s="273">
+        <v>67.605234663822102</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>116.28660853534237</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>108.2875175213134</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5332,17 +5337,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -5352,7 +5357,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -5360,17 +5365,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5380,24 +5385,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5407,7 +5412,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5426,10 +5431,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6411,16 +6416,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6434,11 +6439,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6471,7 +6476,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6535,47 +6540,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>609015</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>554552</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6637,47 +6642,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>315906</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>315806</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6688,47 +6693,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>293109</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>238746</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6739,47 +6744,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>137736</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>135925</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6790,47 +6795,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6841,47 +6846,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>3776</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>621.33333333333337</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6889,50 +6894,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.24892161933614115</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.18429230562087356</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6940,50 +6945,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>151597</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>102199.66666666667</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6991,50 +6996,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.48334143294661752</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7045,47 +7050,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7096,47 +7101,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>12268</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>9352</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7147,47 +7152,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7198,47 +7203,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7249,47 +7254,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7300,47 +7305,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7351,47 +7356,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>139329</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>92847.666666666672</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7402,47 +7407,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.17158321223615181</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>0.12557118178277241</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7453,7 +7458,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>104496.75</v>
       </c>
@@ -7501,50 +7506,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.50061929396897431</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7661,43 +7666,43 @@
         <f>Fin_Analysis!C28</f>
         <v>521641</v>
       </c>
-      <c r="D28" s="200">
+      <c r="D28" s="199">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v>22554271</v>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7712,43 +7717,43 @@
         <f>Fin_Analysis!C13</f>
         <v>52250</v>
       </c>
-      <c r="D29" s="200">
+      <c r="D29" s="199">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>431184</v>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7763,43 +7768,43 @@
         <f>Fin_Analysis!C18</f>
         <v>4387</v>
       </c>
-      <c r="D30" s="200">
+      <c r="D30" s="199">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>2258059</v>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7814,43 +7819,43 @@
         <f>Fin_Analysis!I28</f>
         <v>387826</v>
       </c>
-      <c r="D31" s="200">
+      <c r="D31" s="199">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>7382230</v>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7865,43 +7870,43 @@
         <f>Fin_Analysis!I48</f>
         <v>339547</v>
       </c>
-      <c r="D32" s="200">
+      <c r="D32" s="199">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v>2478102</v>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7916,43 +7921,43 @@
         <f>Fin_Analysis!I15</f>
         <v>58461</v>
       </c>
-      <c r="D33" s="200">
+      <c r="D33" s="199">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>592316</v>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7967,43 +7972,43 @@
         <f>Fin_Analysis!I34</f>
         <v>254499</v>
       </c>
-      <c r="D34" s="200">
+      <c r="D34" s="199">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>1044096</v>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8069,43 +8074,43 @@
         <f>Fin_Analysis!D3</f>
         <v>927597</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="199">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>26334346</v>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8120,43 +8125,43 @@
         <f>Fin_Analysis!D4</f>
         <v>66916</v>
       </c>
-      <c r="D37" s="200">
+      <c r="D37" s="199">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>1389487</v>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8171,43 +8176,43 @@
         <f>Fin_Analysis!C63</f>
         <v>1152511</v>
       </c>
-      <c r="D38" s="200">
+      <c r="D38" s="199">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>19968596</v>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8269,47 +8274,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>0.30171018928907634</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>6.2984808450164782E-3</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8338,47 +8343,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.51871628777616319</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.56947950778285894</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8389,47 +8394,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.22616191719415779</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.2451077626624735</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8440,47 +8445,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8491,47 +8496,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>1.686406324384368E-2</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8542,47 +8547,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>6.2001756935379264E-3</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>1.1204239337940056E-3</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8593,47 +8598,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8644,47 +8649,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.22877761631486909</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.16742824237702988</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8713,47 +8718,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>8.5794274361058437E-2</v>
       </c>
-      <c r="D50" s="157">
+      <c r="D50" s="156">
         <f t="shared" si="41"/>
         <v>0.77753574056175079</v>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8764,47 +8769,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>7.2034350549658056E-3</v>
       </c>
-      <c r="D51" s="154">
+      <c r="D51" s="153">
         <f t="shared" si="42"/>
         <v>4.071861610813774</v>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8832,47 +8837,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.43950826903206702</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.27242491285597292</v>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8882,47 +8887,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>0.44519746932515336</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="157">
         <f t="shared" si="44"/>
         <v>5.6738563800966181E-2</v>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8932,47 +8937,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>8.8050585305284618E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>0.10072412517995426</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8982,47 +8987,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>1.3450387544929943</v>
       </c>
-      <c r="D56" s="159">
+      <c r="D56" s="158">
         <f t="shared" si="46"/>
         <v>3.055211094750502</v>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10320,8 +10325,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10370,7 +10375,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>860681</v>
       </c>
@@ -10414,11 +10419,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-270411.85471330426</v>
+        <v>-269609.55499388743</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2915186818341415</v>
+        <v>1.2906537591150979</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10467,7 +10472,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10514,7 +10519,7 @@
         <f>Inputs!C48</f>
         <v>353601</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10542,7 +10547,7 @@
         <f>Inputs!C49</f>
         <v>3408</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10570,7 +10575,7 @@
         <f>Inputs!C50</f>
         <v>52250</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10598,7 +10603,7 @@
         <f>Inputs!C51</f>
         <v>9714</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10611,7 +10616,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10626,7 +10631,7 @@
         <f>Inputs!C52</f>
         <v>5437</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10653,7 +10658,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10675,7 +10680,7 @@
         <f>Inputs!C54</f>
         <v>92844</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10697,7 +10702,7 @@
         <f>Inputs!C55</f>
         <v>4387</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10718,7 +10723,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10743,7 +10748,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10770,7 +10775,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10791,7 +10796,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10956,7 +10961,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>387826</v>
       </c>
@@ -10985,7 +10990,7 @@
         <f>Inputs!C60</f>
         <v>51490</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -11011,7 +11016,7 @@
         <f>Inputs!C61</f>
         <v>460284</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -11038,7 +11043,7 @@
         <f>Inputs!C62</f>
         <v>1144</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11065,7 +11070,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11081,7 +11086,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>86574</v>
       </c>
@@ -11095,7 +11100,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11122,7 +11127,7 @@
         <f>Inputs!C65</f>
         <v>270182</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11148,7 +11153,7 @@
         <f>Inputs!C66</f>
         <v>659</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11175,7 +11180,7 @@
         <f>Inputs!C67</f>
         <v>13463</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11202,7 +11207,7 @@
         <f>Inputs!C68</f>
         <v>127220</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11223,7 +11228,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11244,7 +11249,7 @@
         <f>Inputs!C70</f>
         <v>177621</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11265,7 +11270,7 @@
         <f>Inputs!C71</f>
         <v>31266</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11286,7 +11291,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11432,7 +11437,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>339547</v>
       </c>
@@ -11505,11 +11510,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.7674940354672777</v>
+        <v>3.7597654539766503</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>252105.63087732837</v>
+        <v>251588.46511830154</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11541,11 +11546,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>312960</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11556,11 +11561,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11572,11 +11577,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11672,8 +11677,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>312960</v>
@@ -11753,8 +11758,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>414413</v>
@@ -11790,19 +11795,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11812,18 +11817,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11834,17 +11839,17 @@
         <f>Data!C6</f>
         <v>609015</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>609015</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>609015</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11855,23 +11860,23 @@
         <f>Data!C8</f>
         <v>315906</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.51871628777616319</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>315906</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.51871628777616319</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>315906</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.51871628777616319</v>
       </c>
@@ -11881,21 +11886,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>293109</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>293109</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>293109</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11906,23 +11911,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>137736</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.22616191719415779</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>137736</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.22616191719415779</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>137736</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.22616191719415779</v>
       </c>
@@ -11936,54 +11941,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>3776</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>6.2001756935379264E-3</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>3776</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>6.2001756935379264E-3</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>3776</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>6.2001756935379264E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>151597</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.24892161933614115</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>151597</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.24892161933614115</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>151597</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.24892161933614115</v>
       </c>
@@ -11997,27 +12002,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12029,23 +12034,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>12268</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>12268</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>12268</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>2.0144003021272054E-2</v>
       </c>
@@ -12059,23 +12064,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12085,27 +12090,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>139329</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.22877761631486909</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>139329</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.22877761631486909</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>139329</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.22877761631486909</v>
       </c>
@@ -12115,49 +12120,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>104496.75</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>0.17158321223615181</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>104496.75</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>0.17158321223615181</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>104496.75</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>0.17158321223615181</v>
       </c>
@@ -12167,71 +12172,71 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>11.275726542587647</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>11.275726542587647</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>11.275726542587647</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9901355381020414E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>2.996282066777068E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9901355381020414E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>2.996282066777068E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9901355381020414E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>2.996282066777068E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>3.1704538097705512</v>
-      </c>
-      <c r="D88" s="167">
+        <v>3.17336650558109</v>
+      </c>
+      <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.28117512408588169</v>
-      </c>
-      <c r="E88" s="171">
+        <v>0.28143343966311191</v>
+      </c>
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>3.1704538097705512</v>
-      </c>
-      <c r="F88" s="167">
+        <v>3.17336650558109</v>
+      </c>
+      <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.28117512408588169</v>
-      </c>
-      <c r="H88" s="171">
+        <v>0.28143343966311191</v>
+      </c>
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>3.1704538097705512</v>
-      </c>
-      <c r="I88" s="167">
+        <v>3.17336650558109</v>
+      </c>
+      <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.28117512408588169</v>
+        <v>0.28143343966311191</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12239,21 +12244,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4075173095944609E-3</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>8.4325396825396821E-3</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4075173095944609E-3</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>8.4325396825396821E-3</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4075173095944609E-3</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>8.4325396825396821E-3</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12275,22 +12280,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12300,9 +12305,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12310,15 +12315,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>203.06313149693347</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>194.48157441824264</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>203.06313149693347</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>194.48157441824264</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12326,24 +12331,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>51.381904655702066</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>49.247101533453971</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>51.381904655702066</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>49.247101533453971</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12364,14 +12372,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12386,21 +12394,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>935621.35575031477</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>896081.49438195676</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>100.95826477709272</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>96.691714244933294</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>100.95826477709272</v>
+        <v>96.691714244933294</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>145.45965501996878</v>
+        <v>137.3739971024246</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12410,16 +12418,16 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>270358.50272959814</v>
-      </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+        <v>269556.25197965867</v>
+      </c>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>29.173046484626408</v>
-      </c>
-      <c r="I98" s="216"/>
+        <v>29.086479581111192</v>
+      </c>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12430,17 +12438,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12449,27 +12457,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>665262.85302071669</v>
+        <v>626525.24240229814</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>61.01743554859636</v>
+        <v>57.464449464248787</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>71.785218292466311</v>
+        <v>67.605234663822102</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>71.785218292466311</v>
+        <v>67.605234663822102</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>71.785218292466311</v>
+        <v>67.605234663822102</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>116.28660853534237</v>
+        <v>108.2875175213134</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12488,14 +12496,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12510,27 +12518,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>236744.14425017062</v>
+        <v>226907.95499821904</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>21.714004468610462</v>
+        <v>20.811836188810144</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>25.545887610129956</v>
+        <v>24.484513163306051</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>25.545887610129956</v>
+        <v>24.484513163306051</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>25.545887610129956</v>
+        <v>24.484513163306051</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>36.806258577767565</v>
+        <v>34.78618066311234</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12549,14 +12557,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12571,27 +12579,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>451003.49863544363</v>
+        <v>426716.59870025853</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>41.365720008603411</v>
+        <v>39.138142826529467</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>48.665552951298132</v>
+        <v>46.044873913564075</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>48.665552951298132</v>
+        <v>46.044873913564075</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>48.665552951298132</v>
+        <v>46.044873913564075</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>76.546433556554973</v>
+        <v>71.536849092212876</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5B5797-452D-40F1-B188-4772E855CF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A17BFB05-86BD-4570-BA3A-9F708667726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,7 +944,7 @@
     <t>騰訊控股</t>
   </si>
   <si>
-    <t>Tier 3</t>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0009</t>
@@ -3580,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4161,11 +4161,11 @@
       </c>
       <c r="C44" s="250">
         <f>3.4/Exchange_Rate</f>
-        <v>3.17336650558109</v>
+        <v>3.1800844870321612</v>
       </c>
       <c r="D44" s="250">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2400234157042989</v>
+        <v>2.2447655202579964</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4183,11 +4183,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4325396825396821E-3</v>
+        <v>8.4033613445378148E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9523809523809521E-3</v>
+        <v>5.9317844784972807E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4663,7 +4663,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4839,16 +4841,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>3.17336650558109</v>
+        <v>3.1800844870321612</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>3.17336650558109</v>
+        <v>3.1800844870321612</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>3.17336650558109</v>
+        <v>3.1800844870321612</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4975,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>403.2</v>
+        <v>404.6</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5016,7 +5018,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3736618.6064256001</v>
+        <v>3749592.9765868001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5054,7 +5056,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Tier 3</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5065,7 +5067,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5111,10 +5113,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5161,7 +5163,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5232,7 +5234,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.7597654539766503</v>
+        <v>3.7808072133532473</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5248,7 +5250,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.374694962401975</v>
+        <v>33.56147850229631</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5264,7 +5266,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.28143343966311191</v>
+        <v>0.28202923111173367</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5280,7 +5282,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.4325396825396821E-3</v>
+        <v>8.4033613445378148E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5310,20 +5312,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>57.464449464248787</v>
+        <v>57.138609608781294</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>124.53064514951041</v>
+        <v>110.04718349937198</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>67.605234663822102</v>
+        <v>67.221893657389757</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>108.2875175213134</v>
+        <v>95.693203042932169</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10419,11 +10421,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-269609.55499388743</v>
+        <v>-270545.40159864468</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2906537591150979</v>
+        <v>1.2916626526375621</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11510,11 +11512,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.7597654539766503</v>
+        <v>3.7808072133532473</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>251588.46511830154</v>
+        <v>252996.49548874589</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12195,17 +12197,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.996282066777068E-2</v>
+        <v>2.9796065150454527E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.996282066777068E-2</v>
+        <v>2.9796065150454527E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.996282066777068E-2</v>
+        <v>2.9796065150454527E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12216,27 +12218,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>3.17336650558109</v>
+        <v>3.1800844870321612</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.28143343966311191</v>
+        <v>0.28202923111173367</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>3.17336650558109</v>
+        <v>3.1800844870321612</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.28143343966311191</v>
+        <v>0.28202923111173367</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>3.17336650558109</v>
+        <v>3.1800844870321612</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.28143343966311191</v>
+        <v>0.28202923111173367</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12246,17 +12248,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4325396825396821E-3</v>
+        <v>8.4033613445378148E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4325396825396821E-3</v>
+        <v>8.4033613445378148E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4325396825396821E-3</v>
+        <v>8.4033613445378148E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12305,7 +12307,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12316,14 +12318,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>194.48157441824264</v>
+        <v>193.91367518720725</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>194.48157441824264</v>
+        <v>193.91367518720725</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12337,21 +12339,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>49.247101533453971</v>
+        <v>49.239977281876968</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>49.247101533453971</v>
+        <v>49.239977281876968</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12394,21 +12396,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>896081.49438195676</v>
+        <v>893464.87636491947</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>96.691714244933294</v>
+        <v>96.409367959268707</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>96.691714244933294</v>
+        <v>96.409367959268707</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>137.3739971024246</v>
+        <v>124.88067734481112</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12418,14 +12420,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>269556.25197965867</v>
+        <v>270492.21118792141</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>29.086479581111192</v>
+        <v>29.187474301878947</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12457,27 +12459,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>626525.24240229814</v>
+        <v>622972.66517699813</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>57.464449464248787</v>
+        <v>57.138609608781294</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>67.605234663822102</v>
+        <v>67.221893657389757</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>67.605234663822102</v>
+        <v>67.221893657389757</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>67.605234663822102</v>
+        <v>67.221893657389771</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>108.2875175213134</v>
+        <v>95.693203042932169</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12518,27 +12520,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>226907.95499821904</v>
+        <v>226875.12972920024</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>20.811836188810144</v>
+        <v>20.808825478490718</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>24.484513163306051</v>
+        <v>24.480971151165551</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>24.484513163306051</v>
+        <v>24.480971151165551</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>24.484513163306051</v>
+        <v>24.480971151165551</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>34.78618066311234</v>
+        <v>31.710614063022891</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12579,27 +12581,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>426716.59870025853</v>
+        <v>424923.89745309914</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>39.138142826529467</v>
+        <v>38.973717543636006</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>46.044873913564075</v>
+        <v>45.851432404277652</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>46.044873913564075</v>
+        <v>45.851432404277652</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>46.044873913564075</v>
+        <v>45.851432404277659</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>71.536849092212876</v>
+        <v>63.701908552977528</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A17BFB05-86BD-4570-BA3A-9F708667726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0000CE45-F0C7-4C91-BA14-145DE62CED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4161,11 +4161,11 @@
       </c>
       <c r="C44" s="250">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1800844870321612</v>
+        <v>3.1757843469515699</v>
       </c>
       <c r="D44" s="250">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2447655202579964</v>
+        <v>2.2417301272599319</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4183,11 +4183,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4033613445378148E-3</v>
+        <v>8.321096426823299E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9317844784972807E-3</v>
+        <v>5.8737151248164461E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4841,16 +4841,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>3.1800844870321612</v>
+        <v>3.1757843469515699</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>3.1800844870321612</v>
+        <v>3.1757843469515699</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>3.1800844870321612</v>
+        <v>3.1757843469515699</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4977,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>404.6</v>
+        <v>408.6</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3749592.9765868001</v>
+        <v>3786662.6056188005</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5067,7 +5067,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.7808072133532473</v>
+        <v>3.813022449756494</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.56147850229631</v>
+        <v>33.847446789749668</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.28202923111173367</v>
+        <v>0.2816478685392777</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.4033613445378148E-3</v>
+        <v>8.321096426823299E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5312,20 +5312,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>57.138609608781294</v>
+        <v>56.904047849248741</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>110.04718349937198</v>
+        <v>109.73411483040033</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>67.221893657389757</v>
+        <v>66.945938646174994</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>95.693203042932169</v>
+        <v>95.420969417739428</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10421,11 +10421,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-270545.40159864468</v>
+        <v>-273219.64278707077</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2916626526375621</v>
+        <v>1.2945456300387677</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11512,11 +11512,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.7808072133532473</v>
+        <v>3.813022449756494</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>252996.49548874589</v>
+        <v>255152.21024790555</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12197,17 +12197,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9796065150454527E-2</v>
+        <v>2.9544325934292896E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9796065150454527E-2</v>
+        <v>2.9544325934292896E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9796065150454527E-2</v>
+        <v>2.9544325934292896E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12218,27 +12218,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>3.1800844870321612</v>
+        <v>3.1757843469515699</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.28202923111173367</v>
+        <v>0.2816478685392777</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>3.1800844870321612</v>
+        <v>3.1757843469515699</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.28202923111173367</v>
+        <v>0.2816478685392777</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>3.1800844870321612</v>
+        <v>3.1757843469515699</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.28202923111173367</v>
+        <v>0.2816478685392777</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12248,17 +12248,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4033613445378148E-3</v>
+        <v>8.321096426823299E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4033613445378148E-3</v>
+        <v>8.321096426823299E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4033613445378148E-3</v>
+        <v>8.321096426823299E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12318,14 +12318,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>193.91367518720725</v>
+        <v>193.93902097059026</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>193.91367518720725</v>
+        <v>193.93902097059026</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12346,14 +12346,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>49.239977281876968</v>
+        <v>49.219895725340855</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>49.239977281876968</v>
+        <v>49.219895725340855</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12396,21 +12396,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>893464.87636491947</v>
+        <v>893581.65805757116</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>96.409367959268707</v>
+        <v>96.421969293104652</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>96.409367959268707</v>
+        <v>96.421969293104652</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>124.88067734481112</v>
+        <v>124.89700006466907</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12420,14 +12420,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>270492.21118792141</v>
+        <v>273166.38035438629</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>29.187474301878947</v>
+        <v>29.476030646929651</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12459,27 +12459,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>622972.66517699813</v>
+        <v>620415.27770318487</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>57.138609608781294</v>
+        <v>56.904047849248741</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>67.221893657389757</v>
+        <v>66.945938646174994</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>67.221893657389757</v>
+        <v>66.945938646174994</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>67.221893657389771</v>
+        <v>66.945938646174994</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>95.693203042932169</v>
+        <v>95.420969417739428</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12520,27 +12520,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>226875.12972920024</v>
+        <v>226782.6031685519</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>20.808825478490718</v>
+        <v>20.800339008180135</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>24.480971151165551</v>
+        <v>24.470987068447219</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>24.480971151165551</v>
+        <v>24.470987068447219</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>24.480971151165551</v>
+        <v>24.470987068447219</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>31.710614063022891</v>
+        <v>31.697681512598344</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12581,27 +12581,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>424923.89745309914</v>
+        <v>423598.94043586834</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>38.973717543636006</v>
+        <v>38.852193428714436</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>45.851432404277652</v>
+        <v>45.708462857311105</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>45.851432404277652</v>
+        <v>45.708462857311105</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>45.851432404277659</v>
+        <v>45.708462857311105</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>63.701908552977528</v>
+        <v>63.559325465168882</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0000CE45-F0C7-4C91-BA14-145DE62CED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE16D54A-80EA-478A-B168-E036BC7BB17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -938,6 +938,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0700.HK</t>
   </si>
   <si>
@@ -951,9 +962,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>agree</t>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3641,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3698,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3715,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4161,11 +4169,11 @@
       </c>
       <c r="C44" s="250">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1757843469515699</v>
+        <v>3.1742792413587093</v>
       </c>
       <c r="D44" s="250">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2417301272599319</v>
+        <v>2.2406676997826183</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4183,11 +4191,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.321096426823299E-3</v>
+        <v>8.30078125E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8737151248164461E-3</v>
+        <v>5.8593749999999991E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4317,7 +4325,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="C54" s="59">
         <v>92844</v>
@@ -4440,7 +4448,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4841,16 +4849,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>3.1757843469515699</v>
+        <v>3.1742792413587093</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>3.1757843469515699</v>
+        <v>3.1742792413587093</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>3.1757843469515699</v>
+        <v>3.1742792413587093</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4977,10 +4985,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>408.6</v>
+        <v>409.6</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5018,7 +5026,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3786662.6056188005</v>
+        <v>3795930.0128768003</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5067,7 +5075,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5113,10 +5121,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5163,7 +5171,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5234,7 +5242,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.813022449756494</v>
+        <v>3.8205428338350171</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5250,7 +5258,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.847446789749668</v>
+        <v>33.914203753101035</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5266,7 +5274,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.2816478685392777</v>
+        <v>0.28151438662242068</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5282,7 +5290,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.321096426823299E-3</v>
+        <v>8.30078125E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5312,20 +5320,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>56.904047849248741</v>
+        <v>72.440341517609923</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>109.73411483040033</v>
+        <v>146.27966742820368</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>66.945938646174994</v>
+        <v>85.223931197188151</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>95.420969417739428</v>
+        <v>127.19971080713366</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10421,11 +10429,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-273219.64278707077</v>
+        <v>-273888.21033342334</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2945456300387677</v>
+        <v>1.2952663822041504</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11512,11 +11520,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.813022449756494</v>
+        <v>3.8205428338350171</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>255152.21024790555</v>
+        <v>255655.44426890402</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12197,17 +12205,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9544325934292896E-2</v>
+        <v>2.9486170669967813E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9544325934292896E-2</v>
+        <v>2.9486170669967813E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9544325934292896E-2</v>
+        <v>2.9486170669967813E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12218,27 +12226,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>3.1757843469515699</v>
+        <v>3.1742792413587093</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.2816478685392777</v>
+        <v>0.28151438662242068</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>3.1757843469515699</v>
+        <v>3.1742792413587093</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.2816478685392777</v>
+        <v>0.28151438662242068</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>3.1757843469515699</v>
+        <v>3.1742792413587093</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.2816478685392777</v>
+        <v>0.28151438662242068</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12248,17 +12256,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.321096426823299E-3</v>
+        <v>8.30078125E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.321096426823299E-3</v>
+        <v>8.30078125E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.321096426823299E-3</v>
+        <v>8.30078125E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12307,7 +12315,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12318,14 +12326,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>193.93902097059026</v>
+        <v>230.84769013079614</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>193.93902097059026</v>
+        <v>230.84769013079614</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12346,14 +12354,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>49.219895725340855</v>
+        <v>58.569843128924909</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>49.219895725340855</v>
+        <v>58.569843128924909</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12396,21 +12404,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>893581.65805757116</v>
+        <v>1063639.8011781166</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>96.421969293104652</v>
+        <v>114.77210093038047</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>96.421969293104652</v>
+        <v>114.77210093038047</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>124.89700006466907</v>
+        <v>156.74788054032598</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12420,14 +12428,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>273166.38035438629</v>
+        <v>273834.92264600249</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>29.476030646929651</v>
+        <v>29.548169733192328</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12459,27 +12467,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>620415.27770318487</v>
+        <v>789804.87853211409</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>56.904047849248741</v>
+        <v>72.440341517609923</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>66.945938646174994</v>
+        <v>85.223931197188151</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>66.945938646174994</v>
+        <v>85.223931197188151</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>66.945938646174994</v>
+        <v>85.223931197188151</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>95.420969417739428</v>
+        <v>127.19971080713366</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12520,27 +12528,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>226782.6031685519</v>
+        <v>269862.85314523248</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>20.800339008180135</v>
+        <v>24.751628884706083</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>24.470987068447219</v>
+        <v>29.119563393771863</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>24.470987068447219</v>
+        <v>29.119563393771863</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>24.470987068447219</v>
+        <v>29.119563393771863</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>31.697681512598344</v>
+        <v>39.769506763687588</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12581,27 +12589,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>423598.94043586834</v>
+        <v>529833.86583867332</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>38.852193428714436</v>
+        <v>48.595985201158001</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>45.708462857311105</v>
+        <v>57.171747295480003</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>45.708462857311105</v>
+        <v>57.171747295480003</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>45.708462857311105</v>
+        <v>57.171747295480003</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>63.559325465168882</v>
+        <v>83.484608785410614</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE16D54A-80EA-478A-B168-E036BC7BB17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{108255F0-F05A-4379-AC96-824492A6D97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -946,6 +946,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4169,11 +4173,11 @@
       </c>
       <c r="C44" s="250">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1742792413587093</v>
+        <v>3.17665188861496</v>
       </c>
       <c r="D44" s="250">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2406676997826183</v>
+        <v>2.2423425096105598</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4191,11 +4195,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.30078125E-3</v>
+        <v>8.3088954056695988E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8593749999999991E-3</v>
+        <v>5.8651026392961877E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4849,16 +4853,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>3.1742792413587093</v>
+        <v>3.17665188861496</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>3.1742792413587093</v>
+        <v>3.17665188861496</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>3.1742792413587093</v>
+        <v>3.17665188861496</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4985,10 +4989,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>409.6</v>
+        <v>409.2</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5026,7 +5030,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3795930.0128768003</v>
+        <v>3792223.0499736001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5075,7 +5079,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5096,7 +5100,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5107,7 +5111,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5134,7 +5138,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5242,7 +5246,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.8205428338350171</v>
+        <v>3.8196647497426204</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5258,7 +5262,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.914203753101035</v>
+        <v>33.906409174132264</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5274,7 +5278,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.28151438662242068</v>
+        <v>0.28172480740970113</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5290,7 +5294,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.30078125E-3</v>
+        <v>8.3088954056695988E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5320,20 +5324,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>72.440341517609923</v>
+        <v>72.395213170153752</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>146.27966742820368</v>
+        <v>146.18414489402844</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>85.223931197188151</v>
+        <v>85.1708390237103</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>127.19971080713366</v>
+        <v>127.11664773393777</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5368,8 +5372,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -6395,12 +6399,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8826,118 +8830,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.43950826903206702</v>
       </c>
-      <c r="D53" s="156">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
+      <c r="D54" s="156">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.27242491285597292</v>
       </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.44519746932515336</v>
-      </c>
-      <c r="D54" s="157">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>5.6738563800966181E-2</v>
-      </c>
-      <c r="E54" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8945,107 +8950,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>8.8050585305284618E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.44519746932515336</v>
+      </c>
+      <c r="D55" s="157">
         <f t="shared" si="45"/>
-        <v>0.10072412517995426</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v>5.6738563800966181E-2</v>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>8.8050585305284618E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.10072412517995426</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>1.3450387544929943</v>
       </c>
-      <c r="D56" s="158">
-        <f t="shared" si="46"/>
+      <c r="D57" s="158">
+        <f t="shared" si="47"/>
         <v>3.055211094750502</v>
       </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9613,7 +9665,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10296,6 +10350,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10429,11 +10484,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-273888.21033342334</v>
+        <v>-273620.75361610309</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2952663822041504</v>
+        <v>1.2949780493210987</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11520,11 +11575,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.8205428338350171</v>
+        <v>3.8196647497426204</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>255655.44426890402</v>
+        <v>255596.6863937772</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12205,17 +12260,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9486170669967813E-2</v>
+        <v>2.94929491018741E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9486170669967813E-2</v>
+        <v>2.94929491018741E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9486170669967813E-2</v>
+        <v>2.94929491018741E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12226,27 +12281,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>3.1742792413587093</v>
+        <v>3.17665188861496</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.28151438662242068</v>
+        <v>0.28172480740970113</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>3.1742792413587093</v>
+        <v>3.17665188861496</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.28151438662242068</v>
+        <v>0.28172480740970113</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>3.1742792413587093</v>
+        <v>3.17665188861496</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.28151438662242068</v>
+        <v>0.28172480740970113</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12256,17 +12311,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.30078125E-3</v>
+        <v>8.3088954056695988E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.30078125E-3</v>
+        <v>8.3088954056695988E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.30078125E-3</v>
+        <v>8.3088954056695988E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12326,14 +12381,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>230.84769013079614</v>
+        <v>230.6828638182098</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>230.84769013079614</v>
+        <v>230.6828638182098</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12354,14 +12409,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.569843128924909</v>
+        <v>58.57219982884282</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.569843128924909</v>
+        <v>58.57219982884282</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12404,21 +12459,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1063639.8011781166</v>
+        <v>1062880.3574676383</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>114.77210093038047</v>
+        <v>114.69015312239755</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>114.77210093038047</v>
+        <v>114.69015312239755</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>156.74788054032598</v>
+        <v>156.63596183262501</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12428,14 +12483,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>273834.92264600249</v>
+        <v>273567.50572935597</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>29.548169733192328</v>
+        <v>29.51931409868725</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12467,27 +12522,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>789804.87853211409</v>
+        <v>789312.85173828236</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>72.440341517609923</v>
+        <v>72.395213170153752</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>85.223931197188151</v>
+        <v>85.1708390237103</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>85.223931197188151</v>
+        <v>85.1708390237103</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>85.223931197188151</v>
+        <v>85.170839023710286</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>127.19971080713366</v>
+        <v>127.11664773393777</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12528,27 +12583,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>269862.85314523248</v>
+        <v>269873.71173268772</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>24.751628884706083</v>
+        <v>24.752624826621659</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>29.119563393771863</v>
+        <v>29.120735090143128</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>29.119563393771863</v>
+        <v>29.120735090143128</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>29.119563393771863</v>
+        <v>29.120735090143128</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>39.769506763687588</v>
+        <v>39.771106986401499</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12589,27 +12644,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>529833.86583867332</v>
+        <v>529593.28173548507</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>48.595985201158001</v>
+        <v>48.573918998387704</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>57.171747295480003</v>
+        <v>57.145787056926714</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>57.171747295480003</v>
+        <v>57.145787056926714</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>57.171747295480003</v>
+        <v>57.145787056926707</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>83.484608785410614</v>
+        <v>83.443877360169637</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{108255F0-F05A-4379-AC96-824492A6D97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F9F2CF-3BED-4874-8E72-F808B10FA4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4173,11 +4173,11 @@
       </c>
       <c r="C44" s="250">
         <f>3.4/Exchange_Rate</f>
-        <v>3.17665188861496</v>
+        <v>3.1778394838223551</v>
       </c>
       <c r="D44" s="250">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2423425096105598</v>
+        <v>2.2431808121098977</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4195,11 +4195,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3088954056695988E-3</v>
+        <v>8.2967301122498782E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8651026392961877E-3</v>
+        <v>5.8565153733528543E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4853,16 +4853,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>3.17665188861496</v>
+        <v>3.1778394838223551</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>3.17665188861496</v>
+        <v>3.1778394838223551</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>3.17665188861496</v>
+        <v>3.1778394838223551</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4989,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>409.2</v>
+        <v>409.8</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3792223.0499736001</v>
+        <v>3797783.4943284001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5079,7 +5079,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.8196647497426204</v>
+        <v>3.826695511370215</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.906409174132264</v>
+        <v>33.968819855741714</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.28172480740970113</v>
+        <v>0.28183013057472378</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3088954056695988E-3</v>
+        <v>8.2967301122498782E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5324,20 +5324,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>72.395213170153752</v>
+        <v>72.29634668251532</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>146.18414489402844</v>
+        <v>146.01966854311704</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>85.1708390237103</v>
+        <v>85.05452550884155</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>127.11664773393777</v>
+        <v>126.97362482010179</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10390,8 +10390,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10484,11 +10484,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-273620.75361610309</v>
+        <v>-274021.85909172439</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2949780493210987</v>
+        <v>1.2954104628321614</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11575,11 +11575,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.8196647497426204</v>
+        <v>3.826695511370215</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>255596.6863937772</v>
+        <v>256067.1568388493</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12260,17 +12260,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.94929491018741E-2</v>
+        <v>2.9438761907148538E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.94929491018741E-2</v>
+        <v>2.9438761907148538E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.94929491018741E-2</v>
+        <v>2.9438761907148538E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12281,27 +12281,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>3.17665188861496</v>
+        <v>3.1778394838223551</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.28172480740970113</v>
+        <v>0.28183013057472378</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>3.17665188861496</v>
+        <v>3.1778394838223551</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.28172480740970113</v>
+        <v>0.28183013057472378</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>3.17665188861496</v>
+        <v>3.1778394838223551</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.28172480740970113</v>
+        <v>0.28183013057472378</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12311,17 +12311,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3088954056695988E-3</v>
+        <v>8.2967301122498782E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3088954056695988E-3</v>
+        <v>8.2967301122498782E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3088954056695988E-3</v>
+        <v>8.2967301122498782E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12381,14 +12381,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>230.6828638182098</v>
+        <v>230.5359742758676</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>230.6828638182098</v>
+        <v>230.5359742758676</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12409,14 +12409,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.57219982884282</v>
+        <v>58.568666532614067</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.57219982884282</v>
+        <v>58.568666532614067</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12459,21 +12459,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1062880.3574676383</v>
+        <v>1062203.5581307099</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>114.69015312239755</v>
+        <v>114.6171230592864</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>114.69015312239755</v>
+        <v>114.6171230592864</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>156.63596183262501</v>
+        <v>156.53622237054665</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12482,15 +12482,15 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>273567.50572935597</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-273968.6311043257</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>29.51931409868725</v>
+        <v>-29.56259755044486</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12521,28 +12521,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>789312.85173828236</v>
+        <f>C97+C98+$C$99</f>
+        <v>788234.92702638428</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>72.395213170153752</v>
+        <v>72.29634668251532</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>85.1708390237103</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>85.054525508841536</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>85.1708390237103</v>
+        <v>85.05452550884155</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>85.170839023710286</v>
+        <v>85.05452550884155</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>127.11664773393777</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>126.97362482010179</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12583,27 +12583,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>269873.71173268772</v>
+        <v>269857.43193150742</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>24.752624826621659</v>
+        <v>24.751131654840382</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>29.120735090143128</v>
+        <v>29.118978417459275</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>29.120735090143128</v>
+        <v>29.118978417459275</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>29.120735090143128</v>
+        <v>29.118978417459275</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>39.771106986401499</v>
+        <v>39.768707843075163</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12644,27 +12644,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>529593.28173548507</v>
+        <v>529046.17947894579</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>48.573918998387704</v>
+        <v>48.523739168677849</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>57.145787056926714</v>
+        <v>57.086751963150405</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>57.145787056926714</v>
+        <v>57.086751963150412</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>57.145787056926707</v>
+        <v>57.086751963150412</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>83.443877360169637</v>
+        <v>83.371166331588483</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F9F2CF-3BED-4874-8E72-F808B10FA4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30058934-13DF-4CF9-B8D7-2A18725EAF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4173,11 +4173,11 @@
       </c>
       <c r="C44" s="250">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1778394838223551</v>
+        <v>3.1767961318173703</v>
       </c>
       <c r="D44" s="250">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2431808121098977</v>
+        <v>2.2424443283416728</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4195,11 +4195,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2967301122498782E-3</v>
+        <v>8.2284607938044527E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8565153733528543E-3</v>
+        <v>5.8083252662149082E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4853,16 +4853,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>3.1778394838223551</v>
+        <v>3.1767961318173703</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>3.1778394838223551</v>
+        <v>3.1767961318173703</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>3.1778394838223551</v>
+        <v>3.1767961318173703</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4989,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>409.8</v>
+        <v>413.2</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3797783.4943284001</v>
+        <v>3829292.6790056</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5079,7 +5079,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.826695511370215</v>
+        <v>3.8571777621803065</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.968819855741714</v>
+        <v>34.239404772542358</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.28183013057472378</v>
+        <v>0.28173759977406593</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2967301122498782E-3</v>
+        <v>8.2284607938044527E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5324,20 +5324,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>72.29634668251532</v>
+        <v>72.009788684896577</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>146.01966854311704</v>
+        <v>145.59333936744545</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>85.05452550884155</v>
+        <v>84.717398452819509</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>126.97362482010179</v>
+        <v>126.60290379777865</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10484,11 +10484,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-274021.85909172439</v>
+        <v>-276294.92036483466</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2954104628321614</v>
+        <v>1.2978609464722661</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11575,11 +11575,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.826695511370215</v>
+        <v>3.8571777621803065</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>256067.1568388493</v>
+        <v>258106.9071340574</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12260,17 +12260,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9438761907148538E-2</v>
+        <v>2.9206115195142966E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9438761907148538E-2</v>
+        <v>2.9206115195142966E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9438761907148538E-2</v>
+        <v>2.9206115195142966E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12281,27 +12281,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>3.1778394838223551</v>
+        <v>3.1767961318173703</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.28183013057472378</v>
+        <v>0.28173759977406593</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>3.1778394838223551</v>
+        <v>3.1767961318173703</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.28183013057472378</v>
+        <v>0.28173759977406593</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>3.1778394838223551</v>
+        <v>3.1767961318173703</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.28183013057472378</v>
+        <v>0.28173759977406593</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12311,17 +12311,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2967301122498782E-3</v>
+        <v>8.2284607938044527E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2967301122498782E-3</v>
+        <v>8.2284607938044527E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2967301122498782E-3</v>
+        <v>8.2284607938044527E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12381,14 +12381,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>230.5359742758676</v>
+        <v>230.35122274546097</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>230.5359742758676</v>
+        <v>230.35122274546097</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12409,14 +12409,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.568666532614067</v>
+        <v>58.548841507827106</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.568666532614067</v>
+        <v>58.548841507827106</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12459,21 +12459,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1062203.5581307099</v>
+        <v>1061352.3081963584</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>114.6171230592864</v>
+        <v>114.52526889655746</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>114.6171230592864</v>
+        <v>114.52526889655746</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>156.53622237054665</v>
+        <v>156.41077424151661</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12483,14 +12483,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-273968.6311043257</v>
+        <v>-276241.67489582085</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-29.56259755044486</v>
+        <v>-29.807870443737961</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12522,27 +12522,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>788234.92702638428</v>
+        <v>785110.63330053748</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>72.29634668251532</v>
+        <v>72.009788684896577</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>85.054525508841536</v>
+        <v>84.717398452819509</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>85.05452550884155</v>
+        <v>84.717398452819509</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>85.05452550884155</v>
+        <v>84.717398452819509</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>126.97362482010179</v>
+        <v>126.60290379777865</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12583,27 +12583,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>269857.43193150742</v>
+        <v>269766.08735097124</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>24.751131654840382</v>
+        <v>24.742753594904713</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>29.118978417459275</v>
+        <v>29.109121876358486</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>29.118978417459275</v>
+        <v>29.109121876358486</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>29.118978417459275</v>
+        <v>29.109121876358486</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>39.768707843075163</v>
+        <v>39.755246453813463</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12644,27 +12644,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>529046.17947894579</v>
+        <v>527438.36032575439</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>48.523739168677849</v>
+        <v>48.376271139900645</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>57.086751963150405</v>
+        <v>56.913260164588998</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>57.086751963150412</v>
+        <v>56.913260164588998</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>57.086751963150412</v>
+        <v>56.913260164588998</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>83.371166331588483</v>
+        <v>83.179075125796061</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30058934-13DF-4CF9-B8D7-2A18725EAF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34CA73C8-9D61-4A83-ACCF-437DC03AD39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4173,11 +4173,11 @@
       </c>
       <c r="C44" s="250">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1767961318173703</v>
+        <v>3.1770929153678766</v>
       </c>
       <c r="D44" s="250">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2424443283416728</v>
+        <v>2.2426538226126187</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4195,11 +4195,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2284607938044527E-3</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8083252662149082E-3</v>
+        <v>5.8337384540593099E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4853,16 +4853,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>3.1767961318173703</v>
+        <v>3.1770929153678766</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>3.1767961318173703</v>
+        <v>3.1770929153678766</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>3.1767961318173703</v>
+        <v>3.1770929153678766</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4989,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>413.2</v>
+        <v>411.4</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3829292.6790056</v>
+        <v>3812611.3459411999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5079,7 +5079,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5125,10 +5125,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5175,7 +5175,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.8571777621803065</v>
+        <v>3.8407337314908276</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.239404772542358</v>
+        <v>34.093434361639929</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.28173759977406593</v>
+        <v>0.28176392034413167</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2284607938044527E-3</v>
+        <v>8.2644628099173556E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5324,20 +5324,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>72.009788684896577</v>
+        <v>63.716929597559144</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>145.59333936744545</v>
+        <v>125.9116052785575</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>84.717398452819509</v>
+        <v>74.96109364418723</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>126.60290379777865</v>
+        <v>109.48835241613696</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10484,11 +10484,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-276294.92036483466</v>
+        <v>-275091.53926607681</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2978609464722661</v>
+        <v>1.2965636362192599</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11575,11 +11575,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.8571777621803065</v>
+        <v>3.8407337314908276</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>258106.9071340574</v>
+        <v>257006.53837644024</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12260,17 +12260,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9206115195142966E-2</v>
+        <v>2.9331160639103737E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9206115195142966E-2</v>
+        <v>2.9331160639103737E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9206115195142966E-2</v>
+        <v>2.9331160639103737E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12281,27 +12281,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>3.1767961318173703</v>
+        <v>3.1770929153678766</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.28173759977406593</v>
+        <v>0.28176392034413167</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>3.1767961318173703</v>
+        <v>3.1770929153678766</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.28173759977406593</v>
+        <v>0.28176392034413167</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>3.1767961318173703</v>
+        <v>3.1770929153678766</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.28173759977406593</v>
+        <v>0.28176392034413167</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12311,17 +12311,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2284607938044527E-3</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2284607938044527E-3</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2284607938044527E-3</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12381,14 +12381,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>230.35122274546097</v>
+        <v>210.46663349980022</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>230.35122274546097</v>
+        <v>210.46663349980022</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12409,14 +12409,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.548841507827106</v>
+        <v>53.47679071800448</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.548841507827106</v>
+        <v>53.47679071800448</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12459,21 +12459,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1061352.3081963584</v>
+        <v>969733.28207666997</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>114.52526889655746</v>
+        <v>104.63911373265236</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>114.52526889655746</v>
+        <v>104.63911373265236</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>156.41077424151661</v>
+        <v>139.16637250460209</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12483,14 +12483,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-276241.67489582085</v>
+        <v>-275038.29877091164</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-29.807870443737961</v>
+        <v>-29.678020088465139</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12522,27 +12522,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>785110.63330053748</v>
+        <v>694694.98330575833</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>72.009788684896577</v>
+        <v>63.716929597559144</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>84.717398452819509</v>
+        <v>74.96109364418723</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>84.717398452819509</v>
+        <v>74.96109364418723</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>84.717398452819509</v>
+        <v>74.961093644187216</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>126.60290379777865</v>
+        <v>109.48835241613696</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12583,27 +12583,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>269766.08735097124</v>
+        <v>246396.41408027231</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>24.742753594904713</v>
+        <v>22.599303789896254</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>29.109121876358486</v>
+        <v>26.587416223407359</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>29.109121876358486</v>
+        <v>26.587416223407359</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>29.109121876358486</v>
+        <v>26.587416223407359</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>39.755246453813463</v>
+        <v>35.360336475470461</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12644,27 +12644,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>527438.36032575439</v>
+        <v>470545.69869301538</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>48.376271139900645</v>
+        <v>43.158116693727699</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>56.913260164588998</v>
+        <v>50.774254933797295</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>56.913260164588998</v>
+        <v>50.774254933797295</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>56.913260164588998</v>
+        <v>50.774254933797287</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>83.179075125796061</v>
+        <v>72.424344445803712</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34CA73C8-9D61-4A83-ACCF-437DC03AD39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{190D48C9-19C3-498C-92F2-B313379DE3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4173,11 +4184,11 @@
       </c>
       <c r="C44" s="250">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1770929153678766</v>
+        <v>3.1799684269477639</v>
       </c>
       <c r="D44" s="250">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2426538226126187</v>
+        <v>2.244683595492539</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4195,11 +4206,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2644628099173556E-3</v>
+        <v>8.3415112855740915E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8337384540593099E-3</v>
+        <v>5.8881256133464172E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4853,16 +4864,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>3.1770929153678766</v>
+        <v>3.1799684269477639</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>3.1770929153678766</v>
+        <v>3.1799684269477639</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>3.1770929153678766</v>
+        <v>3.1799684269477639</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4989,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>411.4</v>
+        <v>407.6</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5030,7 +5041,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3812611.3459411999</v>
+        <v>3777395.1983608003</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5079,7 +5090,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5246,7 +5257,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.8407337314908276</v>
+        <v>3.8087018731611422</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5262,7 +5273,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.093434361639929</v>
+        <v>33.80909388510797</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5278,7 +5289,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.28176392034413167</v>
+        <v>0.28201893819766211</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5294,7 +5305,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2644628099173556E-3</v>
+        <v>8.3415112855740915E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5324,20 +5335,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>63.716929597559144</v>
+        <v>63.976042587559121</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>125.9116052785575</v>
+        <v>126.27382323335648</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>74.96109364418723</v>
+        <v>75.265932455951912</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>109.48835241613696</v>
+        <v>109.80332455074478</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10484,11 +10495,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-275091.53926607681</v>
+        <v>-272551.03041479673</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2965636362192599</v>
+        <v>1.2938248295486043</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11575,11 +11586,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.8407337314908276</v>
+        <v>3.8087018731611422</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>257006.53837644024</v>
+        <v>254863.09454445099</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12260,17 +12271,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9331160639103737E-2</v>
+        <v>2.9577840902754098E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9331160639103737E-2</v>
+        <v>2.9577840902754098E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9331160639103737E-2</v>
+        <v>2.9577840902754098E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12281,27 +12292,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>3.1770929153678766</v>
+        <v>3.1799684269477639</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.28176392034413167</v>
+        <v>0.28201893819766211</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>3.1770929153678766</v>
+        <v>3.1799684269477639</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.28176392034413167</v>
+        <v>0.28201893819766211</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>3.1770929153678766</v>
+        <v>3.1799684269477639</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.28176392034413167</v>
+        <v>0.28201893819766211</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12311,17 +12322,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2644628099173556E-3</v>
+        <v>8.3415112855740915E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2644628099173556E-3</v>
+        <v>8.3415112855740915E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2644628099173556E-3</v>
+        <v>8.3415112855740915E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12381,14 +12392,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.46663349980022</v>
+        <v>210.52840285018647</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.46663349980022</v>
+        <v>210.52840285018647</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12409,14 +12420,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.47679071800448</v>
+        <v>53.497226502117272</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.47679071800448</v>
+        <v>53.497226502117272</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12459,21 +12470,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>969733.28207666997</v>
+        <v>970017.88678519661</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>104.63911373265236</v>
+        <v>104.66982401661889</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>104.63911373265236</v>
+        <v>104.66982401661889</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>139.16637250460209</v>
+        <v>139.20721611141175</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12483,14 +12494,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-275038.29877091164</v>
+        <v>-272497.83806277002</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-29.678020088465139</v>
+        <v>-29.40389156066697</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12522,27 +12533,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>694694.98330575833</v>
+        <v>697520.04872242664</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>63.716929597559144</v>
+        <v>63.976042587559121</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>74.96109364418723</v>
+        <v>75.265932455951912</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>74.96109364418723</v>
+        <v>75.265932455951912</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>74.961093644187216</v>
+        <v>75.265932455951926</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>109.48835241613696</v>
+        <v>109.80332455074478</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12583,27 +12594,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>246396.41408027231</v>
+        <v>246490.57275839613</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>22.599303789896254</v>
+        <v>22.607939956860445</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>26.587416223407359</v>
+        <v>26.597576419835818</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>26.587416223407359</v>
+        <v>26.597576419835818</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>26.587416223407359</v>
+        <v>26.597576419835818</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>35.360336475470461</v>
+        <v>35.373849182434853</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12644,27 +12655,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>470545.69869301538</v>
+        <v>472005.31074041134</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>43.158116693727699</v>
+        <v>43.291991272209785</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>50.774254933797295</v>
+        <v>50.931754437893865</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>50.774254933797295</v>
+        <v>50.931754437893865</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>50.774254933797287</v>
+        <v>50.931754437893872</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>72.424344445803712</v>
+        <v>72.588586866589822</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{190D48C9-19C3-498C-92F2-B313379DE3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E701313F-F915-4F80-A82F-29C301C4BEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -961,6 +940,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>9267407258</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3850,7 +3875,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>315906</v>
@@ -3870,7 +3895,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <f>34211+103525</f>
@@ -3892,7 +3917,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3908,7 +3933,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>12268</v>
@@ -3928,7 +3953,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>2832</v>
@@ -3948,7 +3973,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3964,7 +3989,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3980,7 +4005,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4014,7 +4039,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -4033,7 +4058,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4069,7 +4094,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -4125,7 +4150,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150">
@@ -4143,7 +4168,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4161,7 +4186,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -4180,15 +4205,15 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1799684269477639</v>
+        <v>3.1797701279964126</v>
       </c>
       <c r="D44" s="250">
         <f>2.4/Exchange_Rate</f>
-        <v>2.244683595492539</v>
+        <v>2.2445436197621733</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4202,15 +4227,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3415112855740915E-3</v>
+        <v>8.3497053045186644E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8881256133464172E-3</v>
+        <v>5.893909626719057E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4251,21 +4276,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <f>200090+153511</f>
@@ -4278,7 +4303,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59">
         <v>3408</v>
@@ -4290,7 +4315,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>52250</v>
@@ -4303,7 +4328,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <f>8864+850</f>
@@ -4316,7 +4341,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59">
         <f>5437</f>
@@ -4329,7 +4354,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4340,7 +4365,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="59">
         <v>92844</v>
@@ -4352,7 +4377,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>4387</v>
@@ -4365,7 +4390,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4373,24 +4398,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4401,7 +4426,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4412,7 +4437,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59">
         <v>51490</v>
@@ -4425,7 +4450,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59">
         <f>206848+253436</f>
@@ -4439,7 +4464,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59">
         <v>1144</v>
@@ -4452,7 +4477,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4463,7 +4488,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4473,7 +4498,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <f>262961+7221</f>
@@ -4483,12 +4508,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59">
         <v>659</v>
@@ -4497,12 +4522,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59">
         <v>13463</v>
@@ -4512,12 +4537,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <f>57195+23479+18800+27746</f>
@@ -4531,7 +4556,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4542,7 +4567,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>177621</v>
@@ -4554,7 +4579,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>31266</v>
@@ -4567,7 +4592,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4577,7 +4602,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>52462</v>
@@ -4585,7 +4610,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>5999</v>
@@ -4593,13 +4618,13 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4613,7 +4638,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59">
         <v>152946</v>
@@ -4621,7 +4646,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>14979</v>
@@ -4629,7 +4654,7 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59">
         <v>0</v>
@@ -4637,7 +4662,7 @@
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120">
         <v>86574</v>
@@ -4645,7 +4670,7 @@
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83">
         <v>339547</v>
@@ -4653,7 +4678,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>860681</v>
@@ -4661,19 +4686,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4681,10 +4706,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4692,18 +4717,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4712,20 +4737,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4743,7 +4768,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4764,7 +4789,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4785,7 +4810,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4803,7 +4828,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4824,7 +4849,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4842,7 +4867,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4860,20 +4885,20 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>3.1799684269477639</v>
+        <v>3.1797701279964126</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>3.1799684269477639</v>
+        <v>3.1797701279964126</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>3.1799684269477639</v>
+        <v>3.1797701279964126</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4988,62 +5013,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0700.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>407.6</v>
+        <v>407.2</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>騰訊控股</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>9267407258</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>3777395.1983608003</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>3773688.2354576001</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5066,16 +5091,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5090,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5100,40 +5125,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5146,29 +5171,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5178,12 +5203,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5193,29 +5218,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.51871628777616319</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5223,7 +5248,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5234,78 +5259,78 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>6.2001756935379264E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.8087018731611422</v>
+        <v>3.8047269143945459</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.0144003021272054E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.80909388510797</v>
+        <v>33.773808961634096</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.28201893819766211</v>
+        <v>0.2820013518407562</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.22877761631486909</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3415112855740915E-3</v>
+        <v>8.3497053045186644E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5315,62 +5340,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>63.976042587559121</v>
+        <v>64.019471278268654</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>126.27382323335648</v>
+        <v>126.34101772533924</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>75.265932455951912</v>
-      </c>
-      <c r="G29" s="274">
+        <v>75.317025033257238</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>109.80332455074478</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>109.86175454377326</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5380,25 +5405,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5408,7 +5433,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5418,14 +5443,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5435,7 +5460,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5450,14 +5475,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6410,12 +6435,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6442,16 +6467,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6469,7 +6494,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6502,7 +6527,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6513,7 +6538,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6665,7 +6690,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6716,7 +6741,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6767,7 +6792,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6818,7 +6843,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6869,7 +6894,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6920,7 +6945,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6971,7 +6996,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7022,7 +7047,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7073,7 +7098,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7124,7 +7149,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7175,7 +7200,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7226,7 +7251,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7277,7 +7302,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7328,7 +7353,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7379,7 +7404,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7430,7 +7455,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7481,7 +7506,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7532,7 +7557,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7583,7 +7608,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7736,7 +7761,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7787,7 +7812,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7889,7 +7914,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8093,7 +8118,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8144,7 +8169,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8195,7 +8220,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8246,7 +8271,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8297,7 +8322,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8348,7 +8373,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8366,7 +8391,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8417,7 +8442,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8468,7 +8493,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8519,7 +8544,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8570,7 +8595,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8621,7 +8646,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8672,7 +8697,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8723,7 +8748,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8740,50 +8765,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>8.5794274361058437E-2</v>
-      </c>
-      <c r="D50" s="156">
+      <c r="B50" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>1.2120690444394469</v>
+      </c>
+      <c r="D50" s="272">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>3.4176580643435671E-2</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
-        <v>0.77753574056175079</v>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v/>
+      </c>
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8792,15 +8817,15 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>7.2034350549658056E-3</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>8.5794274361058437E-2</v>
       </c>
       <c r="D51" s="153">
         <f t="shared" si="42"/>
-        <v>4.071861610813774</v>
+        <v>0.77753574056175079</v>
       </c>
       <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8843,167 +8868,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>7.2034350549658056E-3</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" si="43"/>
+        <v>4.071861610813774</v>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.43950826903206702</v>
-      </c>
-      <c r="D54" s="156">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v>0.27242491285597292</v>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.44519746932515336</v>
-      </c>
-      <c r="D55" s="157">
+      <c r="B55" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.52005836963812035</v>
+      </c>
+      <c r="D55" s="156">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v>0.68918582450160215</v>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>5.6738563800966181E-2</v>
-      </c>
-      <c r="E55" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9011,112 +9037,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>8.8050585305284618E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.44519746932515336</v>
+      </c>
+      <c r="D56" s="157">
         <f t="shared" si="46"/>
-        <v>0.10072412517995426</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v>5.6738563800966181E-2</v>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>8.8050585305284618E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.10072412517995426</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>1.3450387544929943</v>
       </c>
-      <c r="D57" s="158">
-        <f t="shared" si="47"/>
+      <c r="D58" s="158">
+        <f t="shared" si="48"/>
         <v>3.055211094750502</v>
       </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>0.17613610617638822</v>
+      </c>
+      <c r="D60" s="274">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>4.0970232249725952E-3</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>0.16188227694116636</v>
+      </c>
+      <c r="D61" s="274">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>3.7221163152963369E-3</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9679,7 +9895,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10362,6 +10580,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10401,8 +10620,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10420,7 +10639,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10435,7 +10654,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10449,7 +10668,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10459,7 +10678,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10477,10 +10696,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10489,22 +10708,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-272551.03041479673</v>
+        <f>(E49-I49-E53)</f>
+        <v>-254646.85620362544</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2938248295486043</v>
+        <v>1.2745231562883725</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10514,8 +10734,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10527,7 +10748,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10545,7 +10766,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10564,32 +10785,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10606,7 +10827,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10617,7 +10838,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10634,7 +10855,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10645,7 +10866,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10662,7 +10883,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10673,7 +10894,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10690,7 +10911,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10701,7 +10922,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10718,7 +10939,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10728,7 +10949,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10750,7 +10971,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10772,7 +10993,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10793,7 +11014,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10818,7 +11039,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10845,7 +11066,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10866,7 +11087,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10883,7 +11104,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10895,13 +11116,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10923,7 +11144,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10943,7 +11164,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10952,7 +11173,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10972,7 +11193,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10985,7 +11206,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11005,7 +11226,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11051,7 +11272,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11060,7 +11281,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11076,7 +11297,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11086,7 +11307,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11103,7 +11324,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11113,7 +11334,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11130,7 +11351,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11140,7 +11361,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11160,7 +11381,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11170,7 +11391,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11187,7 +11408,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11197,7 +11418,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11223,7 +11444,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11250,7 +11471,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11277,7 +11498,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11298,7 +11519,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11319,7 +11540,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11340,7 +11561,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11361,7 +11582,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11378,7 +11599,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11396,7 +11617,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11415,7 +11636,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11434,7 +11655,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11451,7 +11672,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11464,7 +11685,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11481,7 +11702,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11494,7 +11715,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11511,7 +11732,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11538,7 +11759,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11554,14 +11775,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11578,7 +11799,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11586,11 +11807,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.8087018731611422</v>
+        <v>3.8047269143945459</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>254863.09454445099</v>
+        <v>254597.10620362544</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11608,7 +11829,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11619,14 +11840,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>312960</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11634,30 +11855,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11674,11 +11895,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11688,7 +11909,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11709,7 +11930,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11730,7 +11951,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11751,7 +11972,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11766,7 +11987,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11797,11 +12018,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11811,7 +12032,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11832,7 +12053,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11847,7 +12068,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11869,21 +12090,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11893,23 +12114,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11930,7 +12151,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11960,7 +12181,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11981,7 +12202,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12011,7 +12232,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12041,7 +12262,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12072,7 +12293,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12099,12 +12320,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12134,7 +12355,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12164,7 +12385,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12194,7 +12415,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12215,7 +12436,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12246,7 +12467,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12267,72 +12488,72 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9577840902754098E-2</v>
+        <v>2.960874212132739E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9577840902754098E-2</v>
+        <v>2.960874212132739E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9577840902754098E-2</v>
+        <v>2.960874212132739E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>3.1799684269477639</v>
+        <v>3.1797701279964126</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.28201893819766211</v>
+        <v>0.2820013518407562</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>3.1799684269477639</v>
+        <v>3.1797701279964126</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.28201893819766211</v>
+        <v>0.2820013518407562</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>3.1799684269477639</v>
+        <v>3.1797701279964126</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.28201893819766211</v>
+        <v>0.2820013518407562</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3415112855740915E-3</v>
+        <v>8.3497053045186644E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3415112855740915E-3</v>
+        <v>8.3497053045186644E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3415112855740915E-3</v>
+        <v>8.3497053045186644E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12349,29 +12570,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12388,24 +12609,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.52840285018647</v>
+        <v>210.57312928491575</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.52840285018647</v>
+        <v>210.57312928491575</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12416,18 +12637,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.497226502117272</v>
+        <v>53.49940019231542</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.497226502117272</v>
+        <v>53.49940019231542</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12446,69 +12667,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>970017.88678519661</v>
+        <v>970223.96559029934</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>104.66982401661889</v>
+        <v>104.69206095941914</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>104.66982401661889</v>
+        <v>104.69206095941914</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>139.20721611141175</v>
+        <v>139.23679046993516</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-272497.83806277002</v>
+        <v>-272230.42114612355</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-29.40389156066697</v>
+        <v>-29.375035926161903</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12529,31 +12750,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>697520.04872242664</v>
+        <v>697993.54444417579</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>63.976042587559121</v>
+        <v>64.019471278268654</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>75.265932455951912</v>
+        <v>75.317025033257238</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>75.265932455951912</v>
+        <v>75.317025033257238</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>75.265932455951926</v>
+        <v>75.317025033257238</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>109.80332455074478</v>
+        <v>109.86175454377326</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12563,58 +12784,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>246490.57275839613</v>
+        <v>246500.58812137795</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>22.607939956860445</v>
+        <v>22.608858558827272</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>26.597576419835818</v>
+        <v>26.598657128032084</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>26.597576419835818</v>
+        <v>26.598657128032084</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>26.597576419835818</v>
+        <v>26.598657128032084</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>35.373849182434853</v>
+        <v>35.375286486651653</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12624,58 +12845,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>472005.31074041134</v>
+        <v>472247.06628277694</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>43.291991272209785</v>
+        <v>43.314164918547959</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>50.931754437893865</v>
+        <v>50.957841080644663</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>50.931754437893865</v>
+        <v>50.957841080644663</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>50.931754437893872</v>
+        <v>50.957841080644663</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>72.588586866589822</v>
+        <v>72.618520515212452</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12684,7 +12905,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12693,6 +12914,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E701313F-F915-4F80-A82F-29C301C4BEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D67823-5442-4F05-B12E-01DE0BDB1ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -959,10 +925,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -976,6 +938,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.51871628777616319</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22616191719415779</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.2001756935379264E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0144003021272054E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22877761631486909</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>9267407258</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3933,7 +3096,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>12268</v>
@@ -4058,7 +3221,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4168,7 +3331,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4205,15 +3368,15 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1797701279964126</v>
+        <v>3.1800675856985672</v>
       </c>
       <c r="D44" s="250">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2445436197621733</v>
+        <v>2.2447535899048709</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4227,15 +3390,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3497053045186644E-3</v>
+        <v>8.3785115820601275E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.893909626719057E-3</v>
+        <v>5.9142434696895022E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4276,13 +3439,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4354,7 +3517,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4365,7 +3528,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59">
         <v>92844</v>
@@ -4477,7 +3640,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4488,7 +3651,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4678,7 +3841,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>860681</v>
@@ -4698,7 +3861,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4706,10 +3869,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4719,16 +3882,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4737,10 +3900,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4789,7 +3952,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4810,7 +3973,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4828,7 +3991,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4867,7 +4030,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4885,20 +4048,20 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>3.1797701279964126</v>
+        <v>3.1800675856985672</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>3.1797701279964126</v>
+        <v>3.1800675856985672</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>3.1797701279964126</v>
+        <v>3.1800675856985672</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4971,8 +4134,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5013,62 +4176,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0700.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>407.2</v>
+        <v>405.8</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>騰訊控股</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>9267407258</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>3773688.2354576001</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>3760713.8652963997</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5091,16 +4254,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5115,7 +4278,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5125,40 +4288,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5171,29 +4334,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5203,12 +4366,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5216,9 +4379,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5226,111 +4389,111 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.51871628777616319</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>0.1761361061763882</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.22616191719415779</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.52005836963812035</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>6.2001756935379264E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>0.36799156480177886</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.24892161933614115</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.8047269143945459</v>
+        <v>3.7920005265078824</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.0144003021272054E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.773808961634096</v>
+        <v>33.660839331243629</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.2820013518407562</v>
+        <v>0.28202773219868982</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.22877761631486909</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3497053045186644E-3</v>
+        <v>8.3785115820601275E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5340,62 +4503,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>64.019471278268654</v>
+        <v>64.139939750933863</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>126.34101772533924</v>
+        <v>126.51946098239111</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>75.317025033257238</v>
-      </c>
-      <c r="G29" s="278">
+        <v>75.458752648157486</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>109.86175454377326</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>110.01692259338358</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5405,7 +4568,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5416,14 +4579,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5433,7 +4596,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5443,14 +4606,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5460,7 +4623,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5475,14 +4638,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6426,7 +5589,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6440,7 +5602,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6467,16 +5629,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6494,7 +5656,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6527,7 +5689,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6894,7 +6056,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6945,7 +6107,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6996,7 +6158,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7047,7 +6209,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7149,7 +6311,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7302,7 +6464,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7812,7 +6974,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8322,7 +7484,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8373,7 +7535,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8442,7 +7604,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8646,7 +7808,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8748,7 +7910,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8766,15 +7928,15 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>1.2120690444394469</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>0.36799156480177886</v>
       </c>
       <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
-        <v>3.4176580643435671E-2</v>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
+        <v>1.5321368517216813E-2</v>
       </c>
       <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
@@ -8817,7 +7979,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8868,7 +8030,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8919,7 +8081,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8970,7 +8132,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8987,7 +8149,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9187,15 +8349,15 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="E59" s="273" t="str">
         <f t="shared" si="49"/>
@@ -9237,7 +8399,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9287,7 +8449,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10715,11 +9877,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-254646.85620362544</v>
+        <v>-253795.25723180146</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2745231562883725</v>
+        <v>1.2736050862948041</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10791,7 +9953,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10949,7 +10111,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11361,7 +10523,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11807,11 +10969,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.8047269143945459</v>
+        <v>3.7920005265078824</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>254597.10620362544</v>
+        <v>253745.50723180146</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11829,7 +10991,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11843,11 +11005,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>312960</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11858,11 +11020,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11874,11 +11036,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11895,7 +11057,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11972,7 +11134,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12018,7 +11180,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12053,7 +11215,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12092,19 +11254,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12114,18 +11276,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12202,7 +11364,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12232,7 +11394,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12262,7 +11424,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12325,7 +11487,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12355,7 +11517,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12436,7 +11598,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12467,7 +11629,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12488,72 +11650,72 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.960874212132739E-2</v>
+        <v>2.970811244958502E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.960874212132739E-2</v>
+        <v>2.970811244958502E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.960874212132739E-2</v>
+        <v>2.970811244958502E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>3.1797701279964126</v>
+        <v>3.1800675856985672</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.2820013518407562</v>
+        <v>0.28202773219868982</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>3.1797701279964126</v>
+        <v>3.1800675856985672</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.2820013518407562</v>
+        <v>0.28202773219868982</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>3.1797701279964126</v>
+        <v>3.1800675856985672</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.2820013518407562</v>
+        <v>0.28202773219868982</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3497053045186644E-3</v>
+        <v>8.3785115820601275E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3497053045186644E-3</v>
+        <v>8.3785115820601275E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3497053045186644E-3</v>
+        <v>8.3785115820601275E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12575,24 +11737,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12609,24 +11771,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.57312928491575</v>
+        <v>210.65505768429685</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.57312928491575</v>
+        <v>210.65505768429685</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12637,18 +11799,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.49940019231542</v>
+        <v>53.50704241513359</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.49940019231542</v>
+        <v>53.50704241513359</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12667,14 +11829,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12691,21 +11853,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>970223.96559029934</v>
+        <v>970601.45390902227</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>104.69206095941914</v>
+        <v>104.73279385355164</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>104.69206095941914</v>
+        <v>104.73279385355164</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>139.23679046993516</v>
+        <v>139.29096379877774</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12715,14 +11877,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-272230.42114612355</v>
+        <v>-271294.46193786082</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-29.375035926161903</v>
+        <v>-29.274041205394148</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12754,27 +11916,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>697993.54444417579</v>
+        <v>699306.99197116145</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>64.019471278268654</v>
+        <v>64.139939750933863</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>75.317025033257238</v>
+        <v>75.458752648157486</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>75.317025033257238</v>
+        <v>75.458752648157486</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>75.317025033257238</v>
+        <v>75.4587526481575</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>109.86175454377326</v>
+        <v>110.01692259338358</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12784,21 +11946,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12811,31 +11973,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>246500.58812137795</v>
+        <v>246535.79996323906</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>22.608858558827272</v>
+        <v>22.612088163909757</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>26.598657128032084</v>
+        <v>26.602456663423244</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>26.598657128032084</v>
+        <v>26.602456663423244</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>26.598657128032084</v>
+        <v>26.602456663423244</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>35.375286486651653</v>
+        <v>35.380339736232315</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12845,21 +12007,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12872,31 +12034,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>472247.06628277694</v>
+        <v>472921.39596720022</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>43.314164918547959</v>
+        <v>43.376013957421812</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>50.957841080644663</v>
+        <v>51.030604655790363</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>50.957841080644663</v>
+        <v>51.030604655790363</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>50.957841080644663</v>
+        <v>51.03060465579037</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>72.618520515212452</v>
+        <v>72.698631164807949</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12905,7 +12067,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D67823-5442-4F05-B12E-01DE0BDB1ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AED604C-3811-4744-9E79-3D02B05377E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -909,10 +905,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +966,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -2841,24 +2861,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>9267407258</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3096,7 +3116,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>12268</v>
@@ -3182,9 +3202,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150">
@@ -3202,7 +3222,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -3221,7 +3241,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -3238,10 +3258,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150">
         <v>7382230</v>
       </c>
@@ -3255,9 +3276,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -3312,10 +3333,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150">
         <v>26334346</v>
       </c>
@@ -3331,9 +3353,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150">
         <v>1389487</v>
       </c>
@@ -3349,7 +3371,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -3368,15 +3390,15 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1800675856985672</v>
+        <v>3.1802659217533233</v>
       </c>
       <c r="D44" s="250">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2447535899048709</v>
+        <v>2.2448935918258752</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -3390,15 +3412,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3785115820601275E-3</v>
+        <v>8.3826429980276129E-3</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9142434696895022E-3</v>
+        <v>5.9171597633136093E-3</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3439,13 +3461,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3466,7 +3488,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59">
         <v>3408</v>
@@ -3478,7 +3500,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>52250</v>
@@ -3517,7 +3539,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3528,7 +3550,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59">
         <v>92844</v>
@@ -3566,7 +3588,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3640,7 +3662,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3651,7 +3673,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3705,7 +3727,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <f>57195+23479+18800+27746</f>
@@ -3841,7 +3863,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>860681</v>
@@ -3861,7 +3883,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3869,10 +3891,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3880,7 +3902,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3888,10 +3910,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3913,7 +3935,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3952,7 +3974,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3973,7 +3995,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3991,7 +4013,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4030,7 +4052,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4048,20 +4070,20 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>3.1800675856985672</v>
+        <v>3.1802659217533233</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>3.1800675856985672</v>
+        <v>3.1802659217533233</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>3.1800675856985672</v>
+        <v>3.1802659217533233</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4071,28 +4093,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4134,8 +4161,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4176,7 +4203,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4188,15 +4215,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>405.8</v>
+        <v>405.6</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4216,7 +4243,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4229,7 +4256,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>3760713.8652963997</v>
+        <v>3758860.3838448003</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4263,7 +4290,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4278,7 +4305,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4288,40 +4315,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4334,29 +4361,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4366,12 +4393,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4381,7 +4408,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4389,21 +4416,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="276">
+        <v>252</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>0.1761361061763882</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4411,89 +4438,89 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.52005836963812035</v>
+        <v>250</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>0.36799156480177886</v>
+        <v>257</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.24892161933614115</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.7920005265078824</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.0144003021272054E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.660839331243629</v>
+        <v>33.646347806117348</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.28202773219868982</v>
+        <v>0.28204532184615128</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3785115820601275E-3</v>
+        <v>8.3826429980276129E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4503,40 +4530,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="130">
+        <v>160</v>
+      </c>
+      <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>64.139939750933863</v>
-      </c>
-      <c r="D29" s="129">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="129" t="e">
         <f>G29*(1+G20)</f>
-        <v>126.51946098239111</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="131" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>75.458752648157486</v>
-      </c>
-      <c r="G29" s="286">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="286" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>110.01692259338358</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4544,21 +4571,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4568,25 +4595,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4596,7 +4623,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4606,14 +4633,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4623,7 +4650,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4638,14 +4665,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5545,27 +5572,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5597,12 +5624,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5629,16 +5656,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5656,7 +5683,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5689,7 +5716,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5700,7 +5727,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6056,7 +6083,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6107,7 +6134,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6158,7 +6185,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6209,7 +6236,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6311,7 +6338,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6464,7 +6491,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6719,7 +6746,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6770,7 +6797,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6824,15 +6851,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>1654970</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v>36194678</v>
+        <f>IF(D34="","",D34+D30)</f>
+        <v>33716576</v>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6872,50 +6899,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>521641</v>
+        <f>Fin_Analysis!C13</f>
+        <v>52250</v>
       </c>
       <c r="D28" s="199">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v>22554271</v>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v>431184</v>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6923,50 +6950,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>52250</v>
+        <f>Fin_Analysis!C18</f>
+        <v>4387</v>
       </c>
       <c r="D29" s="199">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
-        <v>431184</v>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <v>2258059</v>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6974,101 +7001,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>4387</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v>2258059</v>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v>7382230</v>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>387826</v>
+        <f>Fin_Analysis!I15</f>
+        <v>58461</v>
       </c>
       <c r="D31" s="199">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v>7382230</v>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
+        <v>592316</v>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7076,101 +7103,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>339547</v>
+        <f>Fin_Analysis!I34</f>
+        <v>254499</v>
       </c>
       <c r="D32" s="199">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
-        <v>2478102</v>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <v>1044096</v>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>58461</v>
-      </c>
-      <c r="D33" s="199">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v>592316</v>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>312960</v>
+      </c>
+      <c r="D33" s="77">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v>1636412</v>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7178,50 +7205,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>254499</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
-        <v>1044096</v>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <v>26334346</v>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7229,50 +7256,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>312960</v>
-      </c>
-      <c r="D35" s="77">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v>1636412</v>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v>1389487</v>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7280,50 +7307,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>927597</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v>26334346</v>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v>19968596</v>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7331,272 +7358,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>66916</v>
-      </c>
-      <c r="D37" s="199">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v>1389487</v>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>502459</v>
+      </c>
+      <c r="D37" s="65">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v>13747980</v>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>1152511</v>
-      </c>
-      <c r="D38" s="199">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v>19968596</v>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>0.30171018928907634</v>
+      </c>
+      <c r="D38" s="155">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>7.4337951223864647E-3</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>502459</v>
-      </c>
-      <c r="D39" s="65">
-        <f>IF(D38="","",D27-D38)</f>
-        <v>16226082</v>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>0.30171018928907634</v>
-      </c>
-      <c r="D40" s="155">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>6.2984808450164782E-3</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.51871628777616319</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.56947950778285894</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.22616191719415779</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.2451077626624735</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.51871628777616319</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.56947950778285894</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7604,50 +7631,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.22616191719415779</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>2.0144003021272054E-2</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.2451077626624735</v>
+        <f t="shared" si="37"/>
+        <v>1.686406324384368E-2</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7655,50 +7682,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>6.2001756935379264E-3</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.1204239337940056E-3</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7706,50 +7733,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>2.0144003021272054E-2</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.686406324384368E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7757,221 +7784,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>6.2001756935379264E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.22877761631486909</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>1.1204239337940056E-3</v>
+        <f t="shared" si="40"/>
+        <v>0.16742824237702988</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.22877761631486909</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.16742824237702988</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272">
+        <f t="shared" si="41"/>
+        <v>1.6447458959059188E-2</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>8.5794274361058437E-2</v>
+      </c>
+      <c r="D49" s="153">
+        <f t="shared" si="42"/>
+        <v>0.77753574056175079</v>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>0.36799156480177886</v>
-      </c>
-      <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>1.5321368517216813E-2</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>7.2034350549658056E-3</v>
+      </c>
+      <c r="D50" s="153">
+        <f t="shared" si="43"/>
+        <v>4.071861610813774</v>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7979,522 +8006,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>8.5794274361058437E-2</v>
-      </c>
-      <c r="D51" s="153">
-        <f t="shared" si="42"/>
-        <v>0.77753574056175079</v>
+        <v>246</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>7.2034350549658056E-3</v>
-      </c>
-      <c r="D52" s="153">
-        <f t="shared" si="43"/>
-        <v>4.071861610813774</v>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.73983962665722636</v>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>0.44519746932515336</v>
+      </c>
+      <c r="D54" s="157">
+        <f t="shared" si="46"/>
+        <v>5.6738563800966181E-2</v>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.52005836963812035</v>
-      </c>
-      <c r="D55" s="156">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v>0.68918582450160215</v>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>8.8050585305284618E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.10072412517995426</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.44519746932515336</v>
-      </c>
-      <c r="D56" s="157">
-        <f t="shared" si="46"/>
-        <v>5.6738563800966181E-2</v>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>8.8050585305284618E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.10072412517995426</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>1.3450387544929943</v>
-      </c>
-      <c r="D58" s="158">
-        <f t="shared" si="48"/>
-        <v>3.055211094750502</v>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274">
+        <f t="shared" si="49"/>
+        <v>4.0970232249725952E-3</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274">
+        <f t="shared" si="50"/>
+        <v>3.7221163152963369E-3</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>0.17613610617638822</v>
-      </c>
-      <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>4.0970232249725952E-3</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>0.16188227694116636</v>
-      </c>
-      <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>3.7221163152963369E-3</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9054,12 +8985,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9741,27 +9668,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9875,13 +9805,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>-253795.25723180146</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>1.2736050862948041</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9901,9 +9831,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9953,7 +9883,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10000,7 +9930,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10028,7 +9958,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10111,7 +10041,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10133,7 +10063,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10201,7 +10131,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10523,7 +10453,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10660,7 +10590,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10947,9 +10877,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10967,13 +10897,13 @@
         <f>MAX(D4,0)</f>
         <v>66916</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.7920005265078824</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>253745.50723180146</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10991,7 +10921,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11057,7 +10987,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11092,7 +11022,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11113,7 +11043,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11134,7 +11064,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11149,7 +11079,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11180,7 +11110,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11194,7 +11124,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11215,7 +11145,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11230,7 +11160,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11252,7 +11182,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11260,11 +11190,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11292,7 +11222,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11364,7 +11294,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11394,7 +11324,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11424,7 +11354,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11482,12 +11412,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11517,7 +11447,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11547,7 +11477,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11598,7 +11528,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11629,7 +11559,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11650,72 +11580,72 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.970811244958502E-2</v>
+        <v>2.9720907771695414E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.970811244958502E-2</v>
+        <v>2.9720907771695414E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.970811244958502E-2</v>
+        <v>2.9720907771695414E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>3.1800675856985672</v>
+        <v>3.1802659217533233</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.28202773219868982</v>
+        <v>0.28204532184615128</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>3.1800675856985672</v>
+        <v>3.1802659217533233</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.28202773219868982</v>
+        <v>0.28204532184615128</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>3.1800675856985672</v>
+        <v>3.1802659217533233</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.28202773219868982</v>
+        <v>0.28204532184615128</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3785115820601275E-3</v>
+        <v>8.3826429980276129E-3</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3785115820601275E-3</v>
+        <v>8.3826429980276129E-3</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3785115820601275E-3</v>
+        <v>8.3826429980276129E-3</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11732,27 +11662,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11771,24 +11701,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.65505768429685</v>
+        <v>210.65500794378696</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.65505768429685</v>
+        <v>210.65500794378696</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11799,18 +11729,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.50704241513359</v>
+        <v>53.508138539546614</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.50704241513359</v>
+        <v>53.508138539546614</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11829,14 +11759,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11849,49 +11779,49 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>970601.45390902227</v>
+        <v>970601.22472766892</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>104.73279385355164</v>
+        <v>104.73276912372732</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>104.73279385355164</v>
+        <v>104.73276912372732</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>139.29096379877774</v>
+        <v>139.29093090897373</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-271294.46193786082</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-29.274041205394148</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11914,29 +11844,29 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>699306.99197116145</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>64.139939750933863</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>75.458752648157486</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>75.458752648157486</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>75.4587526481575</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>110.01692259338358</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11946,21 +11876,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11973,31 +11903,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>246535.79996323906</v>
+        <v>246540.85039953352</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>22.612088163909757</v>
+        <v>22.61255138633333</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>26.602456663423244</v>
+        <v>26.603001630980391</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>26.602456663423244</v>
+        <v>26.603001630980391</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>26.602456663423244</v>
+        <v>26.603001630980391</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>35.380339736232315</v>
+        <v>35.381064524080337</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12007,21 +11937,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12034,31 +11964,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>472921.39596720022</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>43.376013957421812</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>51.030604655790363</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>51.030604655790363</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>51.03060465579037</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>72.698631164807949</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12067,7 +11997,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AED604C-3811-4744-9E79-3D02B05377E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A65EA5-4340-455D-A9BF-2C997CF2C3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -945,10 +941,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -978,6 +970,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>266</v>
+      <c r="C4" s="187" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45624</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>9267407258</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>270</v>
+      <c r="C11" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>243</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>271</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>272</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,433 +3048,437 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>609015</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>554552</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>315906</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>315806</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>34211+103525</f>
         <v>137736</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>29229+106696</f>
         <v>135925</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>12268</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>9352</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>2832</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>466</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150">
+        <v>263</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149">
         <v>22554271</v>
       </c>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150">
+      <c r="C35" s="214"/>
+      <c r="D35" s="149">
         <f>431184</f>
         <v>431184</v>
       </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150">
+      <c r="C36" s="214"/>
+      <c r="D36" s="149">
         <v>2258059</v>
       </c>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150">
+      <c r="B37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="149">
+        <v>727373</v>
+      </c>
+      <c r="D37" s="149">
         <v>7382230</v>
       </c>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150">
+        <v>262</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149">
         <v>2478102</v>
       </c>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150">
+      <c r="C39" s="214"/>
+      <c r="D39" s="149">
         <f>504914+87402</f>
         <v>592316</v>
       </c>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150">
+      <c r="C40" s="214"/>
+      <c r="D40" s="149">
         <f>872836+171260</f>
         <v>1044096</v>
       </c>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>927597</v>
+      </c>
+      <c r="D41" s="149">
         <v>26334346</v>
       </c>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150">
+      <c r="C42" s="149">
+        <v>66916</v>
+      </c>
+      <c r="D42" s="149">
         <v>1389487</v>
       </c>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150">
+      <c r="C43" s="214"/>
+      <c r="D43" s="149">
         <f>211741+3338+99866+1800+540000+8670910+10440941</f>
         <v>19968596</v>
       </c>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1802659217533233</v>
-      </c>
-      <c r="D44" s="250">
+        <v>3.1828252322697059</v>
+      </c>
+      <c r="D44" s="247">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2448935918258752</v>
-      </c>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+        <v>2.2467001639550865</v>
+      </c>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3826429980276129E-3</v>
-      </c>
-      <c r="D45" s="152">
+        <v>8.4200099058940065E-3</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9171597633136093E-3</v>
-      </c>
-      <c r="E45" s="152" t="str">
+        <v>5.9435364041604752E-3</v>
+      </c>
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3550,7 +3562,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59">
         <v>92844</v>
@@ -3582,7 +3594,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3594,7 +3606,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3613,8 +3625,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3673,7 +3685,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3692,7 +3704,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3706,7 +3718,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3721,7 +3733,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3776,14 +3788,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3811,7 +3823,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3849,23 +3861,23 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120">
+      <c r="C81" s="119">
         <v>86574</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83">
+        <v>266</v>
+      </c>
+      <c r="C82" s="214">
         <v>339547</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>267</v>
+      </c>
+      <c r="C83" s="214">
         <v>860681</v>
       </c>
     </row>
@@ -3883,20 +3895,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3926,10 +3938,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3941,12 +3953,12 @@
         <f>C25</f>
         <v>609015</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>609015</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>609015</v>
       </c>
@@ -3959,75 +3971,75 @@
         <f>C26</f>
         <v>315906</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.51871628777616319</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>315906</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>315906</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>137736</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.22616191719415779</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>137736</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>137736</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>12268</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>12268</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4040,12 +4052,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4058,12 +4070,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>3776</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>6.2001756935379264E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>3776</v>
       </c>
@@ -4072,18 +4084,18 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
-        <v>3.1802659217533233</v>
-      </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+        <v>3.1828252322697059</v>
+      </c>
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
-        <v>3.1802659217533233</v>
-      </c>
-      <c r="F98" s="254">
+        <v>3.1828252322697059</v>
+      </c>
+      <c r="F98" s="251">
         <f>C98</f>
-        <v>3.1802659217533233</v>
+        <v>3.1828252322697059</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4162,7 +4174,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4214,11 +4226,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>405.6</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>403.8</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4256,7 +4268,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>3758860.3838448003</v>
+        <v>3742179.0507803997</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4266,11 +4278,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4292,11 +4304,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0009</v>
       </c>
@@ -4304,8 +4316,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4314,10 +4326,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4325,7 +4337,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4333,13 +4345,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4348,12 +4360,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4363,7 +4375,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4374,7 +4386,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4382,13 +4394,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4398,129 +4410,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.1761361061763882</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.52005836963812035</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>0.36799156480177886</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.24892161933614115</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>3.7765836021002004</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.646347806117348</v>
+        <v>33.523986339836789</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
-        <v>0.28204532184615128</v>
+        <v>0.2822722970664811</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3826429980276129E-3</v>
+        <v>8.4200099058940065E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4537,10 +4549,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4548,22 +4560,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130" t="e">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="129" t="e">
+        <v>64.237836512759031</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>#DIV/0!</v>
+        <v>126.64086516801621</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131" t="e">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="286" t="e">
+        <v>75.573925309128271</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>#DIV/0!</v>
+        <v>110.12249145044888</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4571,23 +4583,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -4595,9 +4607,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4605,17 +4617,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4623,26 +4635,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4650,9 +4662,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4665,16 +4677,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5626,10 +5638,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5655,16 +5667,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5678,11 +5690,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5707,7 +5719,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5715,7 +5727,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5779,47 +5791,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>609015</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>554552</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5881,47 +5893,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>315906</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>315806</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5932,47 +5944,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>293109</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>238746</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5983,47 +5995,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>137736</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>135925</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6034,47 +6046,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6083,49 +6095,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>3776</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>621.33333333333337</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6133,50 +6145,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.24892161933614115</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.18429230562087356</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6184,50 +6196,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>151597</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>102199.66666666667</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6235,50 +6247,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.48334143294661752</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6289,47 +6301,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6338,49 +6350,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>12268</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>9352</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6391,47 +6403,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6442,47 +6454,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6491,49 +6503,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6544,47 +6556,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6595,47 +6607,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>139329</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>92847.666666666672</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6646,47 +6658,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.17158321223615181</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.12557118178277241</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6697,7 +6709,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>104496.75</v>
       </c>
@@ -6745,50 +6757,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.50061929396897431</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6852,7 +6864,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>1654970</v>
       </c>
       <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
@@ -6905,43 +6917,43 @@
         <f>Fin_Analysis!C13</f>
         <v>52250</v>
       </c>
-      <c r="D28" s="199">
+      <c r="D28" s="198">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>431184</v>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6956,43 +6968,43 @@
         <f>Fin_Analysis!C18</f>
         <v>4387</v>
       </c>
-      <c r="D29" s="199">
+      <c r="D29" s="198">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>2258059</v>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7001,49 +7013,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199">
+        <v>727373</v>
+      </c>
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>7382230</v>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7058,43 +7070,43 @@
         <f>Fin_Analysis!I15</f>
         <v>58461</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>592316</v>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7109,43 +7121,43 @@
         <f>Fin_Analysis!I34</f>
         <v>254499</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>1044096</v>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7209,45 +7221,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199">
+        <v>927597</v>
+      </c>
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>26334346</v>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7260,45 +7272,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199">
+        <v>66916</v>
+      </c>
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>1389487</v>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7313,43 +7325,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>19968596</v>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7411,47 +7423,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.30171018928907634</v>
       </c>
-      <c r="D38" s="155">
+      <c r="D38" s="154">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>7.4337951223864647E-3</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7460,7 +7472,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7480,47 +7492,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.51871628777616319</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.56947950778285894</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7529,49 +7541,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.22616191719415779</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.2451077626624735</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7582,47 +7594,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7633,47 +7645,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>1.686406324384368E-2</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7684,47 +7696,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>6.2001756935379264E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>1.1204239337940056E-3</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7733,49 +7745,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7786,47 +7798,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.22877761631486909</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.16742824237702988</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7835,9 +7847,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7852,50 +7866,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272">
+        <v>0.36799156480177886</v>
+      </c>
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
         <v>1.6447458959059188E-2</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7904,49 +7918,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="153">
+        <v>254</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>8.5794274361058437E-2</v>
       </c>
-      <c r="D49" s="153">
+      <c r="D49" s="152">
         <f t="shared" si="42"/>
         <v>0.77753574056175079</v>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7955,49 +7969,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="153">
+        <v>255</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>7.2034350549658056E-3</v>
       </c>
-      <c r="D50" s="153">
+      <c r="D50" s="152">
         <f t="shared" si="43"/>
         <v>4.071861610813774</v>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8006,49 +8020,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>245</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8057,7 +8071,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8074,49 +8088,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>249</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156">
+        <v>0.52005836963812035</v>
+      </c>
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
         <v>0.73983962665722636</v>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8126,47 +8140,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.44519746932515336</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <f t="shared" si="46"/>
         <v>5.6738563800966181E-2</v>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8176,47 +8190,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>8.8050585305284618E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.10072412517995426</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8226,47 +8240,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8274,149 +8288,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>250</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274">
+        <v>0.17613610617638822</v>
+      </c>
+      <c r="D58" s="271">
         <f t="shared" si="49"/>
         <v>4.0970232249725952E-3</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274">
+        <v>0.16188227694116636</v>
+      </c>
+      <c r="D59" s="271">
         <f t="shared" si="50"/>
         <v>3.7221163152963369E-3</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9712,8 +9726,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9749,8 +9763,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>927597</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9762,8 +9776,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>860681</v>
       </c>
       <c r="K3" s="24"/>
@@ -9773,8 +9787,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>66916</v>
       </c>
       <c r="E4" s="37"/>
@@ -9805,13 +9819,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-252763.61831813701</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>1.2724929234550533</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9831,9 +9845,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9861,11 +9875,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9908,7 +9922,7 @@
         <f>Inputs!C48</f>
         <v>353601</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9936,7 +9950,7 @@
         <f>Inputs!C49</f>
         <v>3408</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9964,7 +9978,7 @@
         <f>Inputs!C50</f>
         <v>52250</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9992,7 +10006,7 @@
         <f>Inputs!C51</f>
         <v>9714</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10005,7 +10019,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10020,7 +10034,7 @@
         <f>Inputs!C52</f>
         <v>5437</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10047,7 +10061,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10069,7 +10083,7 @@
         <f>Inputs!C54</f>
         <v>92844</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10091,7 +10105,7 @@
         <f>Inputs!C55</f>
         <v>4387</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10112,7 +10126,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10120,7 +10134,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10137,7 +10151,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10145,7 +10159,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10164,7 +10178,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10185,7 +10199,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10350,7 +10364,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>387826</v>
       </c>
@@ -10379,7 +10393,7 @@
         <f>Inputs!C60</f>
         <v>51490</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10405,7 +10419,7 @@
         <f>Inputs!C61</f>
         <v>460284</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10432,7 +10446,7 @@
         <f>Inputs!C62</f>
         <v>1144</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10459,7 +10473,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10475,7 +10489,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>86574</v>
       </c>
@@ -10489,7 +10503,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10516,7 +10530,7 @@
         <f>Inputs!C65</f>
         <v>270182</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10524,7 +10538,7 @@
         <f t="shared" si="1"/>
         <v>27018.2</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10542,7 +10556,7 @@
         <f>Inputs!C66</f>
         <v>659</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10550,7 +10564,7 @@
         <f t="shared" si="1"/>
         <v>131.80000000000001</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10569,7 +10583,7 @@
         <f>Inputs!C67</f>
         <v>13463</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10577,7 +10591,7 @@
         <f t="shared" si="1"/>
         <v>1346.3000000000002</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10596,7 +10610,7 @@
         <f>Inputs!C68</f>
         <v>127220</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10617,7 +10631,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10638,7 +10652,7 @@
         <f>Inputs!C70</f>
         <v>177621</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10659,7 +10673,7 @@
         <f>Inputs!C71</f>
         <v>31266</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10680,7 +10694,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10826,8 +10840,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>339547</v>
       </c>
       <c r="J48" s="8"/>
@@ -10853,8 +10867,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>727373</v>
       </c>
       <c r="J49" s="87"/>
@@ -10877,9 +10891,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10897,13 +10911,13 @@
         <f>MAX(D4,0)</f>
         <v>66916</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>3.7765836021002004</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>252713.86831813701</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10924,7 +10938,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11024,7 +11038,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>405091</v>
       </c>
@@ -11032,7 +11046,7 @@
         <f t="shared" si="2"/>
         <v>0.78560348168683092</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>318240.90000000002</v>
       </c>
@@ -11063,11 +11077,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>312960</v>
@@ -11144,12 +11158,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>414413</v>
       </c>
@@ -11228,17 +11242,17 @@
         <f>Data!C6</f>
         <v>609015</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>609015</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>609015</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11249,23 +11263,23 @@
         <f>Data!C8</f>
         <v>315906</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.51871628777616319</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>315906</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.51871628777616319</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>315906</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.51871628777616319</v>
       </c>
@@ -11275,48 +11289,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>293109</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>293109</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>293109</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>137736</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.22616191719415779</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>137736</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.22616191719415779</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>137736</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.22616191719415779</v>
       </c>
@@ -11330,54 +11344,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>3776</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>6.2001756935379264E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>3776</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>6.2001756935379264E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>3776</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>6.2001756935379264E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>151597</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.24892161933614115</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>151597</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.24892161933614115</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>151597</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.24892161933614115</v>
       </c>
@@ -11391,55 +11405,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>12268</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>12268</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>12268</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>2.0144003021272054E-2</v>
       </c>
@@ -11447,29 +11461,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11479,27 +11493,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>139329</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.22877761631486909</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>139329</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.22877761631486909</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>139329</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.22877761631486909</v>
       </c>
@@ -11509,49 +11523,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>104496.75</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.17158321223615181</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>104496.75</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.17158321223615181</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>104496.75</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.17158321223615181</v>
       </c>
@@ -11561,93 +11575,93 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>11.275726542587647</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>11.275726542587647</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>11.275726542587647</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9720907771695414E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>2.9829388124159119E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9720907771695414E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>2.9829388124159119E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9720907771695414E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>2.9829388124159119E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
-        <v>3.1802659217533233</v>
-      </c>
-      <c r="D88" s="166">
+        <v>3.1828252322697059</v>
+      </c>
+      <c r="D88" s="165">
         <f>C88/C86</f>
-        <v>0.28204532184615128</v>
-      </c>
-      <c r="E88" s="170">
+        <v>0.2822722970664811</v>
+      </c>
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
-        <v>3.1802659217533233</v>
-      </c>
-      <c r="F88" s="166">
+        <v>3.1828252322697059</v>
+      </c>
+      <c r="F88" s="165">
         <f>E88/E86</f>
-        <v>0.28204532184615128</v>
-      </c>
-      <c r="H88" s="170">
+        <v>0.2822722970664811</v>
+      </c>
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
-        <v>3.1802659217533233</v>
-      </c>
-      <c r="I88" s="166">
+        <v>3.1828252322697059</v>
+      </c>
+      <c r="I88" s="165">
         <f>H88/H86</f>
-        <v>0.28204532184615128</v>
+        <v>0.2822722970664811</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3826429980276129E-3</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>8.4200099058940065E-3</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3826429980276129E-3</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>8.4200099058940065E-3</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3826429980276129E-3</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>8.4200099058940065E-3</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11669,7 +11683,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11692,27 +11706,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.65500794378696</v>
+        <v>210.59651610443569</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.65500794378696</v>
+        <v>210.59651610443569</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11720,27 +11734,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.508138539546614</v>
+        <v>53.518053336699367</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.508138539546614</v>
+        <v>53.518053336699367</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11754,25 +11768,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11783,21 +11797,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>970601.22472766892</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>970331.72127999354</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>104.73276912372732</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>104.70368834199706</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>104.73276912372732</v>
-      </c>
-      <c r="I97" s="123">
+        <v>104.70368834199706</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>139.29093090897373</v>
+        <v>139.25225448331767</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11805,18 +11819,18 @@
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-269957.37735462841</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-29.129763032868802</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11827,46 +11841,46 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>700374.34392536513</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>64.237836512759031</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>75.573925309128271</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>75.573925309128271</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>75.573925309128256</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>110.12249145044888</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11878,25 +11892,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11907,27 +11921,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>246540.85039953352</v>
+        <v>246586.53321691975</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>22.61255138633333</v>
-      </c>
-      <c r="E103" s="123">
+        <v>22.616741381840949</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>26.603001630980391</v>
+        <v>26.607931037459942</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>26.603001630980391</v>
-      </c>
-      <c r="H103" s="123">
+        <v>26.607931037459942</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>26.603001630980391</v>
+        <v>26.607931037459942</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>35.381064524080337</v>
+        <v>35.38762046281002</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11939,25 +11953,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11966,29 +11980,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>473480.43857114244</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>43.427288947299992</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>51.090928173294103</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>51.090928173294103</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>51.090928173294103</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>72.755055956629448</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11999,14 +12013,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A65EA5-4340-455D-A9BF-2C997CF2C3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7037B5-B33B-4D71-A92F-52F63EC3B87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3406,11 +3406,11 @@
       </c>
       <c r="C44" s="247">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1828252322697059</v>
+        <v>3.1829245692668806</v>
       </c>
       <c r="D44" s="247">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2467001639550865</v>
+        <v>2.2467702841883863</v>
       </c>
       <c r="E44" s="247"/>
       <c r="F44" s="247"/>
@@ -3428,11 +3428,11 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4200099058940065E-3</v>
+        <v>8.4241823587710603E-3</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9435364041604752E-3</v>
+        <v>5.9464816650148661E-3</v>
       </c>
       <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4086,16 +4086,16 @@
       </c>
       <c r="C98" s="234">
         <f>C44</f>
-        <v>3.1828252322697059</v>
+        <v>3.1829245692668806</v>
       </c>
       <c r="D98" s="263"/>
       <c r="E98" s="251">
         <f>F98</f>
-        <v>3.1828252322697059</v>
+        <v>3.1829245692668806</v>
       </c>
       <c r="F98" s="251">
         <f>C98</f>
-        <v>3.1828252322697059</v>
+        <v>3.1829245692668806</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>403.8</v>
+        <v>403.6</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>3742179.0507803997</v>
+        <v>3740325.5693288003</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4317,7 +4317,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.7765836021002004</v>
+        <v>3.7748308902635679</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.523986339836789</v>
+        <v>33.508427863218856</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
-        <v>0.2822722970664811</v>
+        <v>0.28228110687548091</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.4200099058940065E-3</v>
+        <v>8.4241823587710603E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4562,20 +4562,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>64.237836512759031</v>
+        <v>64.253307266333593</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>126.64086516801621</v>
+        <v>126.66322791605806</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>75.573925309128271</v>
+        <v>75.592126195686575</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>110.12249145044888</v>
+        <v>110.14193731831136</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -9821,11 +9821,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-252763.61831813701</v>
+        <v>-252646.33385287691</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2724929234550533</v>
+        <v>1.2723664844246767</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10913,11 +10913,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.7765836021002004</v>
+        <v>3.7748308902635679</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>252713.86831813701</v>
+        <v>252596.58385287691</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11598,17 +11598,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9829388124159119E-2</v>
+        <v>2.9843238366240046E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9829388124159119E-2</v>
+        <v>2.9843238366240046E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9829388124159119E-2</v>
+        <v>2.9843238366240046E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11619,27 +11619,27 @@
       </c>
       <c r="C88" s="168">
         <f>Inputs!C44</f>
-        <v>3.1828252322697059</v>
+        <v>3.1829245692668806</v>
       </c>
       <c r="D88" s="165">
         <f>C88/C86</f>
-        <v>0.2822722970664811</v>
+        <v>0.28228110687548091</v>
       </c>
       <c r="E88" s="169">
         <f>Inputs!E98</f>
-        <v>3.1828252322697059</v>
+        <v>3.1829245692668806</v>
       </c>
       <c r="F88" s="165">
         <f>E88/E86</f>
-        <v>0.2822722970664811</v>
+        <v>0.28228110687548091</v>
       </c>
       <c r="H88" s="169">
         <f>Inputs!F98</f>
-        <v>3.1828252322697059</v>
+        <v>3.1829245692668806</v>
       </c>
       <c r="I88" s="165">
         <f>H88/H86</f>
-        <v>0.2822722970664811</v>
+        <v>0.28228110687548091</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -11649,17 +11649,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4200099058940065E-3</v>
+        <v>8.4241823587710603E-3</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4200099058940065E-3</v>
+        <v>8.4241823587710603E-3</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4200099058940065E-3</v>
+        <v>8.4241823587710603E-3</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11719,14 +11719,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.59651610443569</v>
+        <v>210.60410509450278</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.59651610443569</v>
+        <v>210.60410509450278</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11747,14 +11747,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.518053336699367</v>
+        <v>53.519160531128776</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.518053336699367</v>
+        <v>53.519160531128776</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11797,21 +11797,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>970331.72127999354</v>
+        <v>970366.68784986285</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>104.70368834199706</v>
+        <v>104.70746141130283</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>104.70368834199706</v>
+        <v>104.70746141130283</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>139.25225448331767</v>
+        <v>139.25727253392762</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11821,14 +11821,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-269957.37735462841</v>
+        <v>-269823.66889630514</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-29.129763032868802</v>
+        <v>-29.115335215616263</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11860,27 +11860,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>700374.34392536513</v>
+        <v>700543.01895355771</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>64.237836512759031</v>
+        <v>64.253307266333593</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>75.573925309128271</v>
+        <v>75.592126195686575</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>75.573925309128271</v>
+        <v>75.592126195686575</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>75.573925309128256</v>
+        <v>75.592126195686575</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>110.12249145044888</v>
+        <v>110.14193731831136</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11921,27 +11921,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>246586.53321691975</v>
+        <v>246591.63465874959</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>22.616741381840949</v>
+        <v>22.617209282455942</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>26.607931037459942</v>
+        <v>26.608481508771696</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>26.607931037459942</v>
+        <v>26.608481508771696</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>26.607931037459942</v>
+        <v>26.608481508771696</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>35.38762046281002</v>
+        <v>35.388352570459752</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11982,27 +11982,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>473480.43857114244</v>
+        <v>473567.32680615364</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>43.427288947299992</v>
+        <v>43.435258274394769</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>51.090928173294103</v>
+        <v>51.100303852229132</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>51.090928173294103</v>
+        <v>51.100303852229132</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>51.090928173294103</v>
+        <v>51.100303852229132</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>72.755055956629448</v>
+        <v>72.765144944385554</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7037B5-B33B-4D71-A92F-52F63EC3B87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{634FC645-B69D-4212-83B9-5EE03B04BD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -965,10 +958,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -986,6 +975,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>9267407258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>9267407258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>274</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,449 +3039,450 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>609015</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>554552</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
         <v>315906</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>315806</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
         <f>34211+103525</f>
         <v>137736</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>29229+106696</f>
         <v>135925</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>12268</v>
+      </c>
+      <c r="D29" s="148">
+        <v>9352</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>2832</v>
+      </c>
+      <c r="D30" s="148">
+        <v>466</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>12268</v>
-      </c>
-      <c r="D29" s="149">
-        <v>9352</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>2832</v>
-      </c>
-      <c r="D30" s="149">
-        <v>466</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149">
+      <c r="B34" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148">
         <v>22554271</v>
       </c>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149">
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148">
         <f>431184</f>
         <v>431184</v>
       </c>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149">
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148">
         <v>2258059</v>
       </c>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="148">
         <v>727373</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="148">
         <v>7382230</v>
       </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149">
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148">
         <v>2478102</v>
       </c>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149">
+      <c r="C39" s="212"/>
+      <c r="D39" s="148">
         <f>504914+87402</f>
         <v>592316</v>
       </c>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149">
+      <c r="C40" s="212"/>
+      <c r="D40" s="148">
         <f>872836+171260</f>
         <v>1044096</v>
       </c>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>927597</v>
+      </c>
+      <c r="D41" s="148">
+        <v>26334346</v>
+      </c>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>927597</v>
-      </c>
-      <c r="D41" s="149">
-        <v>26334346</v>
-      </c>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>66916</v>
       </c>
-      <c r="D42" s="149">
+      <c r="D42" s="148">
         <v>1389487</v>
       </c>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149">
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148">
         <f>211741+3338+99866+1800+540000+8670910+10440941</f>
         <v>19968596</v>
       </c>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1829245692668806</v>
-      </c>
-      <c r="D44" s="247">
+        <v>3.1836199834493351</v>
+      </c>
+      <c r="D44" s="245">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2467702841883863</v>
-      </c>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+        <v>2.2472611647877656</v>
+      </c>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4241823587710603E-3</v>
-      </c>
-      <c r="D45" s="151">
+        <v>8.4451068057625426E-3</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9464816650148661E-3</v>
-      </c>
-      <c r="E45" s="151" t="str">
+        <v>5.9612518628912063E-3</v>
+      </c>
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <f>200090+153511</f>
@@ -3496,11 +3491,11 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59">
         <v>3408</v>
@@ -3508,11 +3503,11 @@
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59">
         <v>52250</v>
@@ -3521,11 +3516,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59">
         <f>8864+850</f>
@@ -3534,11 +3529,11 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59">
         <f>5437</f>
@@ -3547,22 +3542,22 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59">
         <v>92844</v>
@@ -3570,11 +3565,11 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59">
         <v>4387</v>
@@ -3583,58 +3578,58 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59">
         <v>51490</v>
@@ -3643,11 +3638,11 @@
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59">
         <f>206848+253436</f>
@@ -3657,11 +3652,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59">
         <v>1144</v>
@@ -3670,32 +3665,32 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <f>262961+7221</f>
@@ -3704,13 +3699,13 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59">
         <v>659</v>
@@ -3718,13 +3713,13 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59">
         <v>13463</v>
@@ -3733,13 +3728,13 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <f>57195+23479+18800+27746</f>
@@ -3749,22 +3744,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <v>177621</v>
@@ -3772,11 +3767,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>31266</v>
@@ -3785,21 +3780,21 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59">
         <v>52462</v>
@@ -3807,7 +3802,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59">
         <v>5999</v>
@@ -3815,27 +3810,27 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>387826</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59">
         <v>152946</v>
@@ -3843,7 +3838,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59">
         <v>14979</v>
@@ -3851,81 +3846,81 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C80" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119">
+      <c r="B81" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="118">
         <v>86574</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="214">
+        <v>263</v>
+      </c>
+      <c r="C82" s="212">
         <v>339547</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="214">
+        <v>264</v>
+      </c>
+      <c r="C83" s="212">
         <v>860681</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3934,168 +3929,168 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>609015</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>609015</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>609015</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>315906</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.51871628777616319</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>315906</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>315906</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>137736</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.22616191719415779</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>137736</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>137736</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>12268</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>12268</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>3776</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>6.2001756935379264E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>3776</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
-        <v>3.1829245692668806</v>
-      </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+        <v>3.1836199834493351</v>
+      </c>
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
-        <v>3.1829245692668806</v>
-      </c>
-      <c r="F98" s="251">
+        <v>3.1836199834493351</v>
+      </c>
+      <c r="F98" s="249">
         <f>C98</f>
-        <v>3.1829245692668806</v>
+        <v>3.1836199834493351</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4106,32 +4101,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4190,13 +4185,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4207,82 +4202,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0700.HK : 騰訊控股</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0700.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>403.6</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>402.6</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>騰訊控股</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>9267407258</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>3740325.5693288003</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>3731058.1620708001</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4293,31 +4288,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0009</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4326,280 +4321,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>0.1761361061763882</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.52005836963812035</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>0.36799156480177886</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.24892161933614115</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.7748308902635679</v>
+        <v>3.7663006812163253</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.508427863218856</v>
+        <v>33.432706883173111</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
-        <v>0.28228110687548091</v>
+        <v>0.28234278043414945</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.4241823587710603E-3</v>
+        <v>8.4451068057625426E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>64.253307266333593</v>
-      </c>
-      <c r="D29" s="128">
+        <v>64.324388871596867</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>126.66322791605806</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>126.76375574897938</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>75.592126195686575</v>
-      </c>
-      <c r="G29" s="286">
+        <v>75.675751613643371</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>110.14193731831136</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>110.22935282519947</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -4607,9 +4602,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4617,17 +4612,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4635,26 +4630,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4662,9 +4657,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4677,16 +4672,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5638,10 +5633,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5667,59 +5662,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>151597</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5727,19 +5722,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5788,928 +5783,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>609015</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>554552</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>9.8210808003577732E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>315906</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>315806</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>293109</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>238746</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>137736</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>135925</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>3776</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>621.33333333333337</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.24892161933614115</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.18429230562087356</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>151597</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>102199.66666666667</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.48334143294661752</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>12268</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>9352</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>139329</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>92847.666666666672</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.17158321223615181</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.12557118178277241</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>104496.75</v>
       </c>
@@ -6753,63 +6748,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.50061929396897431</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6855,11 +6850,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6906,266 +6901,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>52250</v>
       </c>
-      <c r="D28" s="198">
+      <c r="D28" s="196">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>431184</v>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>4387</v>
       </c>
-      <c r="D29" s="198">
+      <c r="D29" s="196">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>2258059</v>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>261</v>
+      <c r="B30" s="93" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>727373</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>7382230</v>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>58461</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="196">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>592316</v>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>254499</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="196">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>1044096</v>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7212,165 +7207,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>927597</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>26334346</v>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>66916</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>1389487</v>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="196">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>19968596</v>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7416,63 +7411,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.30171018928907634</v>
       </c>
-      <c r="D38" s="154">
+      <c r="D38" s="153">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>7.4337951223864647E-3</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7485,372 +7480,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.51871628777616319</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.56947950778285894</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.22616191719415779</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.2451077626624735</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>1.686406324384368E-2</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>6.2001756935379264E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>1.1204239337940056E-3</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.22877761631486909</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.16742824237702988</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>265</v>
+      <c r="B47" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>262</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7862,216 +7857,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>0.36799156480177886</v>
       </c>
-      <c r="D48" s="269">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>1.6447458959059188E-2</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>8.5794274361058437E-2</v>
       </c>
-      <c r="D49" s="152">
+      <c r="D49" s="151">
         <f t="shared" si="42"/>
         <v>0.77753574056175079</v>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>7.2034350549658056E-3</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="151">
         <f t="shared" si="43"/>
         <v>4.071861610813774</v>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>248</v>
+      <c r="B52" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8087,350 +8082,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.52005836963812035</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>0.73983962665722636</v>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.44519746932515336</v>
       </c>
-      <c r="D54" s="156">
+      <c r="D54" s="155">
         <f t="shared" si="46"/>
         <v>5.6738563800966181E-2</v>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>8.8050585305284618E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.10072412517995426</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>7.3498032540433522E-2</v>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>0.17613610617638822</v>
       </c>
-      <c r="D58" s="271">
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
         <v>4.0970232249725952E-3</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>0.16188227694116636</v>
       </c>
-      <c r="D59" s="271">
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
         <v>3.7221163152963369E-3</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9709,7 +9704,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9727,7 +9722,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9745,25 +9740,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>927597</v>
       </c>
@@ -9771,12 +9766,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>860681</v>
       </c>
@@ -9784,28 +9779,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>66916</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9818,25 +9813,25 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-252646.33385287691</v>
+        <v>-252075.52638427162</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2723664844246767</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+        <v>1.2717511229383791</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>1.3337269806562737</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9844,7 +9839,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9854,287 +9849,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>1.080311789307576</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>353601</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>318240.90000000002</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>52462</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>3408</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>2726.4</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>5999</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>52250</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>31350</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>9714</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>5828.4</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>5437</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>2718.5</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>58461</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>92844</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>9284.4</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>4387</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>2193.5</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10145,21 +10140,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10172,45 +10167,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10218,17 +10213,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10238,19 +10233,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.85481809090323257</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>358145.70000000007</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.96187269717821322</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10260,17 +10255,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.12212838697204953</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>12002.9</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>3.2236215029135831E-2</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10279,7 +10274,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10289,17 +10284,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>2193.5</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>5.8910877926508969E-3</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10312,7 +10307,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10322,17 +10317,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>0</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10359,12 +10354,12 @@
         <f>SUM(E24:E27)</f>
         <v>372342.10000000009</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>387826</v>
       </c>
@@ -10374,171 +10369,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>51490</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>152946</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>460284</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>276170.39999999997</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>14979</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>1144</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>572</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>86574</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>254499</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>270182</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>27018.2</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10546,25 +10541,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>659</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>131.80000000000001</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10572,26 +10567,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>13463</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>1346.3000000000002</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10599,113 +10594,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>127220</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>12722</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>177621</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>8881.0500000000011</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>31266</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>28139.4</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10713,17 +10708,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10733,16 +10728,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.53963351010406935</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>276170.39999999997</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10752,16 +10747,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.10168653206843428</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>27590.2</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10771,14 +10766,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.10046624499441072</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>14200.1</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10791,7 +10786,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10801,14 +10796,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.1772271610966695</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>37020.450000000004</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10821,13 +10816,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>1133329</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.31321985937005048</v>
       </c>
@@ -10835,12 +10830,12 @@
         <f>SUM(E30:E42)</f>
         <v>354981.14999999997</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>339547</v>
       </c>
@@ -10851,109 +10846,109 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>1654970</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.43947820806419452</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>727323.25</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>727373</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>P/B Approach</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>66916</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.7748308902635679</v>
-      </c>
-      <c r="E53" s="88">
+        <v>3.7663006812163253</v>
+      </c>
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>252596.58385287691</v>
-      </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+        <v>252025.77638427162</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>312960</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10961,61 +10956,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11029,35 +11024,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>312439.3</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>405091</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.78560348168683092</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>318240.90000000002</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11071,29 +11066,29 @@
         <f>E61+E62</f>
         <v>630680.19999999995</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>312960</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11107,9 +11102,9 @@
         <f>E63-E64</f>
         <v>317720.19999999995</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11117,28 +11112,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11152,29 +11147,29 @@
         <f>E49-E63</f>
         <v>96643.050000000047</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>414413</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11188,29 +11183,29 @@
         <f>E68-E69</f>
         <v>-317769.94999999995</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11220,66 +11215,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>609015</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>609015</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>609015</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>315906</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.51871628777616319</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>315906</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.51871628777616319</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>315906</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.51871628777616319</v>
       </c>
@@ -11287,50 +11282,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>293109</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>293109</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>293109</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>137736</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.22616191719415779</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>137736</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.22616191719415779</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>137736</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.22616191719415779</v>
       </c>
@@ -11338,60 +11333,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>3776</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>6.2001756935379264E-3</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>3776</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>6.2001756935379264E-3</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>3776</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>6.2001756935379264E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>151597</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.24892161933614115</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>151597</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.24892161933614115</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>151597</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.24892161933614115</v>
       </c>
@@ -11399,61 +11394,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>12268</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>12268</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>2.0144003021272054E-2</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>12268</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>2.0144003021272054E-2</v>
       </c>
@@ -11461,59 +11456,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>139329</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.22877761631486909</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>139329</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.22877761631486909</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>139329</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.22877761631486909</v>
       </c>
@@ -11521,184 +11516,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>104496.75</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.17158321223615181</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>104496.75</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.17158321223615181</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>104496.75</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.17158321223615181</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>11.275726542587647</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>11.275726542587647</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>11.275726542587647</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9843238366240046E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>2.9910829640399421E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9843238366240046E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>2.9910829640399421E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9843238366240046E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>2.9910829640399421E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
-        <v>3.1829245692668806</v>
-      </c>
-      <c r="D88" s="165">
+        <v>3.1836199834493351</v>
+      </c>
+      <c r="D88" s="163">
         <f>C88/C86</f>
-        <v>0.28228110687548091</v>
-      </c>
-      <c r="E88" s="169">
+        <v>0.28234278043414945</v>
+      </c>
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
-        <v>3.1829245692668806</v>
-      </c>
-      <c r="F88" s="165">
+        <v>3.1836199834493351</v>
+      </c>
+      <c r="F88" s="163">
         <f>E88/E86</f>
-        <v>0.28228110687548091</v>
-      </c>
-      <c r="H88" s="169">
+        <v>0.28234278043414945</v>
+      </c>
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
-        <v>3.1829245692668806</v>
-      </c>
-      <c r="I88" s="165">
+        <v>3.1836199834493351</v>
+      </c>
+      <c r="I88" s="163">
         <f>H88/H86</f>
-        <v>0.28228110687548091</v>
+        <v>0.28234278043414945</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4241823587710603E-3</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>8.4451068057625426E-3</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4241823587710603E-3</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>8.4451068057625426E-3</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4241823587710603E-3</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>8.4451068057625426E-3</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11706,55 +11701,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.60410509450278</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>210.62720821031374</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.60410509450278</v>
+        <v>210.62720821031374</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.519160531128776</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>53.524713280316462</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.519160531128776</v>
+        <v>53.524713280316462</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11764,123 +11759,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>970366.68784986285</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>970473.13636357267</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>104.70746141130283</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>104.71894774299695</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>104.70746141130283</v>
-      </c>
-      <c r="I97" s="122">
+        <v>104.71894774299695</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>139.25727253392762</v>
+        <v>139.27254895455306</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-269155.12660468894</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-29.043196129353586</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>-269823.66889630514</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-29.115335215616263</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>700543.01895355771</v>
-      </c>
-      <c r="D100" s="109">
+        <v>701318.00975888374</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>64.253307266333593</v>
-      </c>
-      <c r="E100" s="109">
+        <v>64.324388871596867</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>75.592126195686575</v>
-      </c>
-      <c r="F100" s="109">
+        <v>75.675751613643357</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>75.592126195686575</v>
-      </c>
-      <c r="H100" s="109">
+        <v>75.675751613643371</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>75.592126195686575</v>
-      </c>
-      <c r="I100" s="109">
+        <v>75.675751613643371</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>110.14193731831136</v>
+        <v>110.22935282519947</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11890,58 +11885,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>246591.63465874959</v>
-      </c>
-      <c r="D103" s="109">
+        <v>246617.21916877278</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>22.617209282455942</v>
-      </c>
-      <c r="E103" s="122">
+        <v>22.619555875512042</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>26.608481508771696</v>
-      </c>
-      <c r="F103" s="109">
+        <v>26.611242206484757</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>26.608481508771696</v>
-      </c>
-      <c r="H103" s="122">
+        <v>26.611242206484757</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>26.608481508771696</v>
-      </c>
-      <c r="I103" s="109">
+        <v>26.611242206484757</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>35.388352570459752</v>
+        <v>35.392024202152754</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11951,58 +11946,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>473567.32680615364</v>
-      </c>
-      <c r="D106" s="109">
+        <v>473967.61446382827</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>43.435258274394769</v>
-      </c>
-      <c r="E106" s="122">
+        <v>43.471972373554451</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>51.100303852229132</v>
-      </c>
-      <c r="F106" s="109">
+        <v>51.143496910064059</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>51.100303852229132</v>
-      </c>
-      <c r="H106" s="122">
+        <v>51.143496910064066</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>51.100303852229132</v>
-      </c>
-      <c r="I106" s="122">
+        <v>51.143496910064066</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>72.765144944385554</v>
+        <v>72.810688513676112</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12011,15 +12006,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{634FC645-B69D-4212-83B9-5EE03B04BD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{860374B6-FFF2-4C9E-9F13-DF4627123480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3400,11 +3417,11 @@
       </c>
       <c r="C44" s="245">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1836199834493351</v>
+        <v>3.1854025399664443</v>
       </c>
       <c r="D44" s="245">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2472611647877656</v>
+        <v>2.2485194399763135</v>
       </c>
       <c r="E44" s="245"/>
       <c r="F44" s="245"/>
@@ -3422,11 +3439,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4451068057625426E-3</v>
+        <v>8.3743842364532011E-3</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9612518628912063E-3</v>
+        <v>5.9113300492610833E-3</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3911,11 +3928,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3929,10 +3946,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4081,16 +4098,16 @@
       </c>
       <c r="C98" s="232">
         <f>C44</f>
-        <v>3.1836199834493351</v>
+        <v>3.1854025399664443</v>
       </c>
       <c r="D98" s="261"/>
       <c r="E98" s="249">
         <f>F98</f>
-        <v>3.1836199834493351</v>
+        <v>3.1854025399664443</v>
       </c>
       <c r="F98" s="249">
         <f>C98</f>
-        <v>3.1836199834493351</v>
+        <v>3.1854025399664443</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4154,8 +4171,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4168,8 +4188,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4212,60 +4232,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0700.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>402.6</v>
+        <v>406</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>騰訊控股</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>9267407258</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>3731058.1620708001</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>3762567.346748</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4288,11 +4308,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4312,7 +4332,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4433,7 +4453,7 @@
         <v>249</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.1761361061763882</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4445,20 +4465,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.52005836963812035</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.24892161933614115</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>0.36799156480177886</v>
       </c>
@@ -4467,26 +4487,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.24892161933614115</v>
+      <c r="B23" s="275" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.9228610832584894</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.7663006812163253</v>
+        <v>3.8002341100099581</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>2.0144003021272054E-2</v>
       </c>
@@ -4495,7 +4515,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.432706883173111</v>
+        <v>33.73392722494151</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4511,7 +4531,7 @@
       </c>
       <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
-        <v>0.28234278043414945</v>
+        <v>0.28250086838620975</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4527,7 +4547,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.4451068057625426E-3</v>
+        <v>8.3743842364532011E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4546,10 +4566,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4557,22 +4577,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>64.324388871596867</v>
+        <v>63.950806033823874</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>126.76375574897938</v>
+        <v>126.18461524756408</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>75.675751613643371</v>
-      </c>
-      <c r="G29" s="285">
+        <v>75.236242392733971</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>110.22935282519947</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>109.72575238918617</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5603,7 +5623,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7844,7 +7864,7 @@
       <c r="B47" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>262</v>
       </c>
       <c r="D47" s="36"/>
@@ -9771,7 +9791,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>860681</v>
       </c>
@@ -9816,11 +9836,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-252075.52638427162</v>
+        <v>-254346.21570542635</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2717511229383791</v>
+        <v>1.2741990494853113</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10818,7 +10838,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>1133329</v>
       </c>
@@ -10835,7 +10855,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>339547</v>
       </c>
@@ -10908,11 +10928,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.7663006812163253</v>
+        <v>3.8002341100099581</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>252025.77638427162</v>
+        <v>254296.46570542635</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -10944,11 +10964,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>312960</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10959,11 +10979,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10975,11 +10995,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11193,19 +11213,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11215,18 +11235,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11593,17 +11613,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9910829640399421E-2</v>
+        <v>2.9643746882237892E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9910829640399421E-2</v>
+        <v>2.9643746882237892E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9910829640399421E-2</v>
+        <v>2.9643746882237892E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11614,27 +11634,27 @@
       </c>
       <c r="C88" s="166">
         <f>Inputs!C44</f>
-        <v>3.1836199834493351</v>
+        <v>3.1854025399664443</v>
       </c>
       <c r="D88" s="163">
         <f>C88/C86</f>
-        <v>0.28234278043414945</v>
+        <v>0.28250086838620975</v>
       </c>
       <c r="E88" s="167">
         <f>Inputs!E98</f>
-        <v>3.1836199834493351</v>
+        <v>3.1854025399664443</v>
       </c>
       <c r="F88" s="163">
         <f>E88/E86</f>
-        <v>0.28234278043414945</v>
+        <v>0.28250086838620975</v>
       </c>
       <c r="H88" s="167">
         <f>Inputs!F98</f>
-        <v>3.1836199834493351</v>
+        <v>3.1854025399664443</v>
       </c>
       <c r="I88" s="163">
         <f>H88/H86</f>
-        <v>0.28234278043414945</v>
+        <v>0.28250086838620975</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -11644,17 +11664,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4451068057625426E-3</v>
+        <v>8.3743842364532011E-3</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4451068057625426E-3</v>
+        <v>8.3743842364532011E-3</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4451068057625426E-3</v>
+        <v>8.3743842364532011E-3</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11685,15 +11705,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11714,14 +11734,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.62720821031374</v>
+        <v>210.23652957668909</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.62720821031374</v>
+        <v>210.23652957668909</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11742,14 +11762,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.524713280316462</v>
+        <v>53.50594738858311</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.524713280316462</v>
+        <v>53.50594738858311</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11792,21 +11812,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>970473.13636357267</v>
+        <v>968673.06921125413</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>104.71894774299695</v>
+        <v>104.52471141538065</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>104.71894774299695</v>
+        <v>104.52471141538065</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>139.27254895455306</v>
+        <v>139.01422141183286</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11816,14 +11836,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-269155.12660468894</v>
+        <v>-271428.17039618408</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-29.043196129353586</v>
+        <v>-29.288469022646687</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11855,27 +11875,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>701318.00975888374</v>
+        <v>697244.89881507005</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>64.324388871596867</v>
+        <v>63.950806033823874</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>75.675751613643357</v>
+        <v>75.236242392733971</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>75.675751613643371</v>
+        <v>75.236242392733971</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>75.675751613643371</v>
+        <v>75.236242392733971</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>110.22935282519947</v>
+        <v>109.72575238918617</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11916,27 +11936,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>246617.21916877278</v>
+        <v>246530.75458538934</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>22.619555875512042</v>
+        <v>22.611625405443139</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>26.611242206484757</v>
+        <v>26.601912241697811</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>26.611242206484757</v>
+        <v>26.601912241697811</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>26.611242206484757</v>
+        <v>26.601912241697811</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>35.392024202152754</v>
+        <v>35.379615674321442</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11977,27 +11997,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>473967.61446382827</v>
+        <v>471887.82670022972</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>43.471972373554451</v>
+        <v>43.281215719633508</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>51.143496910064059</v>
+        <v>50.919077317215894</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>51.143496910064066</v>
+        <v>50.919077317215894</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>51.143496910064066</v>
+        <v>50.919077317215894</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>72.810688513676112</v>
+        <v>72.552684031753813</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{860374B6-FFF2-4C9E-9F13-DF4627123480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36A0FDFF-41CC-42DF-9939-8329892703F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3417,11 +3417,11 @@
       </c>
       <c r="C44" s="245">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1854025399664443</v>
+        <v>3.1904770207488871</v>
       </c>
       <c r="D44" s="245">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2485194399763135</v>
+        <v>2.2521014264109791</v>
       </c>
       <c r="E44" s="245"/>
       <c r="F44" s="245"/>
@@ -3439,11 +3439,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3743842364532011E-3</v>
+        <v>7.9737335834896804E-3</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9113300492610833E-3</v>
+        <v>5.6285178236397749E-3</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4098,16 +4098,16 @@
       </c>
       <c r="C98" s="232">
         <f>C44</f>
-        <v>3.1854025399664443</v>
+        <v>3.1904770207488871</v>
       </c>
       <c r="D98" s="261"/>
       <c r="E98" s="249">
         <f>F98</f>
-        <v>3.1854025399664443</v>
+        <v>3.1904770207488871</v>
       </c>
       <c r="F98" s="249">
         <f>C98</f>
-        <v>3.1854025399664443</v>
+        <v>3.1904770207488871</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>406</v>
+        <v>426.4</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>3762567.346748</v>
+        <v>3951622.4548111996</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4332,7 +4332,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.8002341100099581</v>
+        <v>3.9975399549939068</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.73392722494151</v>
+        <v>35.485372220977993</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
-        <v>0.28250086838620975</v>
+        <v>0.28295090420104407</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3743842364532011E-3</v>
+        <v>7.9737335834896804E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4577,20 +4577,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>63.950806033823874</v>
+        <v>61.924919518378502</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>126.18461524756408</v>
+        <v>123.10056121081341</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>75.236242392733971</v>
+        <v>72.852846492210006</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>109.72575238918617</v>
+        <v>107.04396627027253</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9742,7 +9742,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9836,11 +9836,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-254346.21570542635</v>
+        <v>-267549.13362837228</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2741990494853113</v>
+        <v>1.2884325128567387</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10928,11 +10928,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.8002341100099581</v>
+        <v>3.9975399549939068</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>254296.46570542635</v>
+        <v>267499.38362837228</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -11613,17 +11613,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9643746882237892E-2</v>
+        <v>2.8180625914607904E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9643746882237892E-2</v>
+        <v>2.8180625914607904E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9643746882237892E-2</v>
+        <v>2.8180625914607904E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11634,27 +11634,27 @@
       </c>
       <c r="C88" s="166">
         <f>Inputs!C44</f>
-        <v>3.1854025399664443</v>
+        <v>3.1904770207488871</v>
       </c>
       <c r="D88" s="163">
         <f>C88/C86</f>
-        <v>0.28250086838620975</v>
+        <v>0.28295090420104407</v>
       </c>
       <c r="E88" s="167">
         <f>Inputs!E98</f>
-        <v>3.1854025399664443</v>
+        <v>3.1904770207488871</v>
       </c>
       <c r="F88" s="163">
         <f>E88/E86</f>
-        <v>0.28250086838620975</v>
+        <v>0.28295090420104407</v>
       </c>
       <c r="H88" s="167">
         <f>Inputs!F98</f>
-        <v>3.1854025399664443</v>
+        <v>3.1904770207488871</v>
       </c>
       <c r="I88" s="163">
         <f>H88/H86</f>
-        <v>0.28250086838620975</v>
+        <v>0.28295090420104407</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -11664,17 +11664,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3743842364532011E-3</v>
+        <v>7.9737335834896804E-3</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3743842364532011E-3</v>
+        <v>7.9737335834896804E-3</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3743842364532011E-3</v>
+        <v>7.9737335834896804E-3</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11734,14 +11734,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.23652957668909</v>
+        <v>208.41502708651876</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.23652957668909</v>
+        <v>208.41502708651876</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11762,14 +11762,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.50594738858311</v>
+        <v>53.399736020724134</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.50594738858311</v>
+        <v>53.399736020724134</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11812,21 +11812,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>968673.06921125413</v>
+        <v>960280.42492968263</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>104.52471141538065</v>
+        <v>103.61910275398006</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>104.52471141538065</v>
+        <v>103.61910275398006</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>139.01422141183286</v>
+        <v>137.80979347069157</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11836,14 +11836,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-271428.17039618408</v>
+        <v>-285066.43314515491</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-29.288469022646687</v>
+        <v>-30.76010638240529</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11853,18 +11853,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-53.017150382200882</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-6.5789407157972341E-3</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-5.7208180137367261E-3</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11875,27 +11875,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>697244.89881507005</v>
+        <v>675160.9746341455</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>63.950806033823874</v>
+        <v>61.924919518378502</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>75.236242392733971</v>
+        <v>72.852417430858964</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>75.236242392733971</v>
+        <v>72.852846492210006</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>75.236242392733971</v>
+        <v>72.853275553561033</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>109.72575238918617</v>
+        <v>107.04396627027253</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11936,27 +11936,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>246530.75458538934</v>
+        <v>246041.38153544298</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>22.611625405443139</v>
+        <v>22.566740457488002</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>26.601912241697811</v>
+        <v>26.54910642057412</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>26.601912241697811</v>
+        <v>26.54910642057412</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>26.601912241697811</v>
+        <v>26.54910642057412</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>35.379615674321442</v>
+        <v>35.309385773562852</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11997,27 +11997,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>471887.82670022972</v>
+        <v>460597.20179851557</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>43.281215719633508</v>
+        <v>42.245829987933249</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>50.919077317215894</v>
+        <v>49.700761925716542</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>50.919077317215894</v>
+        <v>49.700976456392063</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>50.919077317215894</v>
+        <v>49.701190987067577</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>72.552684031753813</v>
+        <v>71.1766760219177</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C6BE70-048D-4E98-8832-CAD1C53138F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FEEFC5E-CED0-44F8-A818-A71E53420DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3630,11 +3630,11 @@
       </c>
       <c r="C44" s="86">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1957800247673149</v>
+        <v>3.1959803256483057</v>
       </c>
       <c r="D44" s="86">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2558447233651635</v>
+        <v>2.2559861122223333</v>
       </c>
       <c r="E44" s="86"/>
       <c r="F44" s="86"/>
@@ -3652,11 +3652,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.1613058089294276E-3</v>
+        <v>8.141762452107279E-3</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.760921747479596E-3</v>
+        <v>5.7471264367816082E-3</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4312,16 +4312,16 @@
       </c>
       <c r="C98" s="109">
         <f>C44</f>
-        <v>3.1957800247673149</v>
+        <v>3.1959803256483057</v>
       </c>
       <c r="D98" s="110"/>
       <c r="E98" s="111">
         <f>F98</f>
-        <v>3.1957800247673149</v>
+        <v>3.1959803256483057</v>
       </c>
       <c r="F98" s="111">
         <f>C98</f>
-        <v>3.1957800247673149</v>
+        <v>3.1959803256483057</v>
       </c>
     </row>
   </sheetData>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>416.6</v>
+        <v>417.6</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>3860801.8636828004</v>
+        <v>3870069.2709408002</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4545,7 +4545,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4676,7 +4676,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.9121557782039837</v>
+        <v>3.9217922440909398</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.727433756501334</v>
+        <v>34.812974759904243</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="G25" s="44">
         <f>Fin_Analysis!I88</f>
-        <v>0.28342120684614625</v>
+        <v>0.28343897074634677</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.1613058089294276E-3</v>
+        <v>8.141762452107279E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4795,20 +4795,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>84.647916922721819</v>
+        <v>62.54620380060306</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>142.34401751839636</v>
+        <v>123.97692794122477</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>99.585784614966855</v>
+        <v>73.583769177180073</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>123.77740653773597</v>
+        <v>107.8060242967172</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -10041,11 +10041,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-261835.56605429779</v>
+        <v>-262480.39980558935</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.2822729763618228</v>
+        <v>1.2829681422057093</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11133,11 +11133,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.9121557782039837</v>
+        <v>3.9217922440909403</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>261785.81605429779</v>
+        <v>262430.64980558935</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11259,7 +11259,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-5.7113250196381268E-3</v>
+        <v>-5.7109670751840013E-3</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11313,7 +11313,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-5.7113250196381268E-3</v>
+        <v>-5.7109670751840013E-3</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11334,7 +11334,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-5.7113250196381268E-3</v>
+        <v>-5.7109670751840013E-3</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11845,17 +11845,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8795677993706911E-2</v>
+        <v>2.8724922443334189E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8795677993706911E-2</v>
+        <v>2.8724922443334189E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8795677993706911E-2</v>
+        <v>2.8724922443334189E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11866,27 +11866,27 @@
       </c>
       <c r="C88" s="240">
         <f>Inputs!C44</f>
-        <v>3.1957800247673149</v>
+        <v>3.1959803256483057</v>
       </c>
       <c r="D88" s="241">
         <f>C88/C86</f>
-        <v>0.28342120684614625</v>
+        <v>0.28343897074634677</v>
       </c>
       <c r="E88" s="261">
         <f>Inputs!E98</f>
-        <v>3.1957800247673149</v>
+        <v>3.1959803256483057</v>
       </c>
       <c r="F88" s="241">
         <f>E88/E86</f>
-        <v>0.28342120684614625</v>
+        <v>0.28343897074634677</v>
       </c>
       <c r="H88" s="261">
         <f>Inputs!F98</f>
-        <v>3.1957800247673149</v>
+        <v>3.1959803256483057</v>
       </c>
       <c r="I88" s="241">
         <f>H88/H86</f>
-        <v>0.28342120684614625</v>
+        <v>0.28343897074634677</v>
       </c>
       <c r="K88" s="75"/>
     </row>
@@ -11896,17 +11896,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1613058089294276E-3</v>
+        <v>8.141762452107279E-3</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1613058089294276E-3</v>
+        <v>8.141762452107279E-3</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1613058089294276E-3</v>
+        <v>8.141762452107279E-3</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11959,21 +11959,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>197.17329076043401</v>
+        <v>208.60743314009557</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>197.17329076043401</v>
+        <v>208.60743314009557</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11994,14 +11994,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>52.587570686740349</v>
+        <v>53.444259448858602</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>52.587570686740349</v>
+        <v>53.444259448858602</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12044,21 +12044,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1201469.6709966243</v>
+        <v>961166.94338025036</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>129.64463927701755</v>
+        <v>103.714762567549</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>129.64463927701755</v>
+        <v>103.714762567549</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>153.83626119978666</v>
+        <v>137.93701768708613</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12068,14 +12068,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-278514.718687316</v>
+        <v>-279183.2609789322</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-30.053143337031059</v>
+        <v>-30.125282423293736</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12086,17 +12086,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-52.929174939791366</v>
+        <v>-52.925857722759247</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-5.7113250196381268E-3</v>
+        <v>-5.7109670751840013E-3</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-5.7113250196381268E-3</v>
+        <v>-5.7109670751840013E-3</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12108,23 +12108,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>84.647916922721819</v>
+        <v>62.54620380060306</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>99.585784614966855</v>
+        <v>73.583769177180073</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>99.585784614966855</v>
+        <v>73.583769177180073</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>99.585784614966855</v>
+        <v>73.583769177180073</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>123.77740653773597</v>
+        <v>107.8060242967172</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12163,23 +12163,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>29.390604148091928</v>
+        <v>22.585556068235555</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>34.577181350696385</v>
+        <v>26.571242433218302</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>34.577181350696385</v>
+        <v>26.571242433218302</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>34.577181350696385</v>
+        <v>26.571242433218302</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>41.029265316958416</v>
+        <v>35.338825898498143</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12218,23 +12218,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>57.019260535406872</v>
+        <v>42.565879934419307</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>67.081482982831616</v>
+        <v>50.077505805199188</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>67.081482982831616</v>
+        <v>50.077505805199188</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>67.081482982831616</v>
+        <v>50.077505805199188</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>82.4033359273472</v>
+        <v>71.572425097607663</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FEEFC5E-CED0-44F8-A818-A71E53420DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{505ED25C-B64E-4433-AE1F-776768C578D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>281</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3652,11 +3653,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.141762452107279E-3</v>
+        <v>8.1534772182254196E-3</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7471264367816082E-3</v>
+        <v>5.7553956834532375E-3</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4360,7 +4361,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4383,6 +4384,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4401,8 +4405,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4438,24 +4442,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0700.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>417.6</v>
+        <v>417</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4465,7 +4472,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>騰訊控股</v>
       </c>
@@ -4494,11 +4501,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>3870069.2709408002</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>3864508.8265860002</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4521,11 +4528,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4593,10 +4600,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4643,7 +4650,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4717,7 +4724,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.9217922440909398</v>
+        <v>3.9161574851195446</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4733,7 +4740,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.812974759904243</v>
+        <v>34.762956118007821</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4765,7 +4772,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.141762452107279E-3</v>
+        <v>8.1534772182254196E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4784,10 +4791,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4795,22 +4802,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>62.54620380060306</v>
+        <v>70.980998789423623</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>123.97692794122477</v>
+        <v>143.81008630045278</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>73.583769177180073</v>
-      </c>
-      <c r="G29" s="312">
+        <v>83.507057399321909</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>107.8060242967172</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>125.05224895691548</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5792,15 +5799,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5828,7 +5836,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -10041,11 +10049,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-262480.39980558935</v>
+        <v>-262103.34427425946</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.2829681422057093</v>
+        <v>1.2825616558422024</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11133,11 +11141,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.9217922440909403</v>
+        <v>3.9161574851195446</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>262430.64980558935</v>
+        <v>262053.59427425946</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11845,17 +11853,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8724922443334189E-2</v>
+        <v>2.8766253266993665E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8724922443334189E-2</v>
+        <v>2.8766253266993665E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8724922443334189E-2</v>
+        <v>2.8766253266993665E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11896,17 +11904,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.141762452107279E-3</v>
+        <v>8.1534772182254196E-3</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.141762452107279E-3</v>
+        <v>8.1534772182254196E-3</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.141762452107279E-3</v>
+        <v>8.1534772182254196E-3</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11955,7 +11963,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11966,14 +11974,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>208.60743314009557</v>
+        <v>228.47965174754219</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>208.60743314009557</v>
+        <v>228.47965174754219</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11994,14 +12002,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.444259448858602</v>
+        <v>58.52707288747569</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>53.444259448858602</v>
+        <v>58.52707288747569</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12044,21 +12052,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>961166.94338025036</v>
+        <v>1052728.9712983838</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>103.714762567549</v>
+        <v>113.59476733793323</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>103.714762567549</v>
+        <v>113.59476733793323</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>137.93701768708613</v>
+        <v>155.1399588955268</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12068,14 +12076,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-279183.2609789322</v>
+        <v>-278782.13560396247</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-30.125282423293736</v>
+        <v>-30.08199897153613</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12108,23 +12116,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>62.54620380060306</v>
+        <v>70.980998789423623</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>73.583769177180073</v>
+        <v>83.507057399321909</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>73.583769177180073</v>
+        <v>83.507057399321909</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>73.583769177180073</v>
+        <v>83.507057399321909</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>107.8060242967172</v>
+        <v>125.05224895691548</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12163,23 +12171,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>22.585556068235555</v>
+        <v>24.733554171046187</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>26.571242433218302</v>
+        <v>29.09829902476022</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>26.571242433218302</v>
+        <v>29.09829902476022</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>26.571242433218302</v>
+        <v>29.09829902476022</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>35.338825898498143</v>
+        <v>39.74046534380782</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12218,23 +12226,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>42.565879934419307</v>
+        <v>47.857276480234901</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>50.077505805199188</v>
+        <v>56.302678212041066</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>50.077505805199188</v>
+        <v>56.302678212041066</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>50.077505805199188</v>
+        <v>56.302678212041066</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>71.572425097607663</v>
+        <v>82.396357150361652</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{505ED25C-B64E-4433-AE1F-776768C578D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0B8B910-3DF7-491C-9F4D-A8357B4F5152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3653,11 +3653,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.1534772182254196E-3</v>
+        <v>8.1456636320076676E-3</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7553956834532375E-3</v>
+        <v>5.7498802108289409E-3</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4442,27 +4442,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0700.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>417</v>
+        <v>417.4</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4472,40 +4472,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>騰訊控股</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>9267407258</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>3864508.8265860002</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>3868215.7894891999</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4528,11 +4528,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4683,7 +4683,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.9161574851195446</v>
+        <v>3.9199139911004743</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.762956118007821</v>
+        <v>34.7963018792721</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.1534772182254196E-3</v>
+        <v>8.1456636320076676E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4791,10 +4791,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4802,22 +4802,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>70.980998789423623</v>
+        <v>82.323378317616985</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>143.81008630045278</v>
+        <v>152.72860098017762</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>83.507057399321909</v>
-      </c>
-      <c r="G29" s="313">
+        <v>96.851033314843519</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>125.05224895691548</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>132.80747911319793</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5800,15 +5800,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10049,11 +10049,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-262103.34427425946</v>
+        <v>-262354.71462847933</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.2825616558422024</v>
+        <v>1.282832646751207</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11141,11 +11141,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.9161574851195446</v>
+        <v>3.9199139911004743</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>262053.59427425946</v>
+        <v>262304.96462847933</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11181,7 +11181,7 @@
         <f>I15+I34</f>
         <v>312960</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11192,11 +11192,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11208,11 +11208,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11853,17 +11853,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8766253266993665E-2</v>
+        <v>2.873868618192707E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8766253266993665E-2</v>
+        <v>2.873868618192707E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8766253266993665E-2</v>
+        <v>2.873868618192707E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11904,17 +11904,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1534772182254196E-3</v>
+        <v>8.1456636320076676E-3</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1534772182254196E-3</v>
+        <v>8.1456636320076676E-3</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1534772182254196E-3</v>
+        <v>8.1456636320076676E-3</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11967,21 +11967,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>228.47965174754219</v>
+        <v>222.06712400253485</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>228.47965174754219</v>
+        <v>222.06712400253485</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12002,14 +12002,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.52707288747569</v>
+        <v>58.051933361040938</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.52707288747569</v>
+        <v>58.051933361040938</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12052,21 +12052,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1052728.9712983838</v>
+        <v>1176660.4474651122</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>113.59476733793323</v>
+        <v>126.96759888795991</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>113.59476733793323</v>
+        <v>126.96759888795991</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>155.1399588955268</v>
+        <v>162.92404468631432</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12076,14 +12076,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-278782.13560396247</v>
+        <v>-279049.55252060894</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-30.08199897153613</v>
+        <v>-30.110854606041201</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12116,23 +12116,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>70.980998789423623</v>
+        <v>82.323378317616985</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>83.507057399321909</v>
+        <v>96.851033314843519</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>83.507057399321909</v>
+        <v>96.851033314843519</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>83.507057399321909</v>
+        <v>96.851033314843519</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>125.05224895691548</v>
+        <v>132.80747911319793</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12171,23 +12171,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>24.733554171046187</v>
+        <v>28.2126741153068</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>29.09829902476022</v>
+        <v>33.19138131212565</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>29.09829902476022</v>
+        <v>33.19138131212565</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>29.09829902476022</v>
+        <v>33.19138131212565</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>39.74046534380782</v>
+        <v>42.5909770639134</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12226,23 +12226,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>47.857276480234901</v>
+        <v>55.268026216461891</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>56.302678212041066</v>
+        <v>65.021207313484581</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>56.302678212041066</v>
+        <v>65.021207313484581</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>56.302678212041066</v>
+        <v>65.021207313484581</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>82.396357150361652</v>
+        <v>87.699228088555657</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2477B93E-76A2-4247-B7FF-2AD366C1120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6067E09-F2DA-43A8-B2F3-6C83D3ACE38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3652,11 +3652,11 @@
       </c>
       <c r="C44" s="81">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1960803661209618</v>
+        <v>3.1942648544635741</v>
       </c>
       <c r="D44" s="81">
         <f>2.4/Exchange_Rate</f>
-        <v>2.256056729026561</v>
+        <v>2.2547751913860523</v>
       </c>
       <c r="E44" s="81"/>
       <c r="F44" s="81"/>
@@ -3674,11 +3674,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.1456636320076676E-3</v>
+        <v>8.2046332046332056E-3</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.74988021082894E-3</v>
+        <v>5.7915057915057912E-3</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4334,16 +4334,16 @@
       </c>
       <c r="C98" s="104">
         <f>C44</f>
-        <v>3.1960803661209618</v>
+        <v>3.1942648544635741</v>
       </c>
       <c r="D98" s="105"/>
       <c r="E98" s="106">
         <f>F98</f>
-        <v>3.1960803661209618</v>
+        <v>3.1942648544635741</v>
       </c>
       <c r="F98" s="106">
         <f>C98</f>
-        <v>3.1960803661209618</v>
+        <v>3.1942648544635741</v>
       </c>
     </row>
   </sheetData>
@@ -4468,27 +4468,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0700.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>417.4</v>
+        <v>414.4</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4498,7 +4498,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>騰訊控股</v>
       </c>
@@ -4527,11 +4527,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>3868215.7894891999</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>3840413.5677151997</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4554,11 +4554,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4578,7 +4578,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.920036692121283</v>
+        <v>3.8896512696904977</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.797391071986695</v>
+        <v>34.527665681574753</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="G25" s="44">
         <f>Fin_Analysis!I88</f>
-        <v>0.2834478429438303</v>
+        <v>0.28328683232952262</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.1456636320076676E-3</v>
+        <v>8.2046332046332056E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4817,10 +4817,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4828,22 +4828,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>83.218945453487862</v>
+        <v>83.559817915086626</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>154.63347245374487</v>
+        <v>155.15528095810336</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>97.904641709985725</v>
-      </c>
-      <c r="G29" s="313">
+        <v>98.305668135396033</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>134.46388909021294</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>134.91763561574206</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5826,15 +5826,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10177,11 +10177,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-262362.92528998776</v>
+        <v>-260329.65436260935</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>1.2828414982907317</v>
+        <v>1.2806495216808693</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11269,11 +11269,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.920036692121283</v>
+        <v>3.8896512696904977</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>262313.17528998776</v>
+        <v>260279.90436260935</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-5.7107883162730612E-3</v>
+        <v>-5.7140341343981859E-3</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-5.7107883162730612E-3</v>
+        <v>-5.7140341343981859E-3</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-5.7107883162730612E-3</v>
+        <v>-5.7140341343981859E-3</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11981,17 +11981,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8737786632660529E-2</v>
+        <v>2.8962282281759847E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8737786632660529E-2</v>
+        <v>2.8962282281759847E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8737786632660529E-2</v>
+        <v>2.8962282281759847E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12002,27 +12002,27 @@
       </c>
       <c r="C88" s="234">
         <f>Inputs!C44</f>
-        <v>3.1960803661209618</v>
+        <v>3.1942648544635741</v>
       </c>
       <c r="D88" s="235">
         <f>C88/C86</f>
-        <v>0.2834478429438303</v>
+        <v>0.28328683232952262</v>
       </c>
       <c r="E88" s="255">
         <f>Inputs!E98</f>
-        <v>3.1960803661209618</v>
+        <v>3.1942648544635741</v>
       </c>
       <c r="F88" s="235">
         <f>E88/E86</f>
-        <v>0.2834478429438303</v>
+        <v>0.28328683232952262</v>
       </c>
       <c r="H88" s="255">
         <f>Inputs!F98</f>
-        <v>3.1960803661209618</v>
+        <v>3.1942648544635741</v>
       </c>
       <c r="I88" s="235">
         <f>H88/H86</f>
-        <v>0.2834478429438303</v>
+        <v>0.28328683232952262</v>
       </c>
       <c r="K88" s="75"/>
     </row>
@@ -12032,17 +12032,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1456636320076676E-3</v>
+        <v>8.2046332046332056E-3</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1456636320076676E-3</v>
+        <v>8.2046332046332056E-3</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1456636320076676E-3</v>
+        <v>8.2046332046332056E-3</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12102,14 +12102,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>223.9098913580406</v>
+        <v>224.23277962122643</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>223.9098913580406</v>
+        <v>224.23277962122643</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12130,14 +12130,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.535699472382952</v>
+        <v>58.549396413924406</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.535699472382952</v>
+        <v>58.549396413924406</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12180,21 +12180,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1186424.6638967113</v>
+        <v>1188135.5423076784</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>128.0212071043432</v>
+        <v>128.20581951678361</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>128.0212071043432</v>
+        <v>128.20581951678361</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>164.58045448457042</v>
+        <v>164.81778699712962</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12204,14 +12204,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-279049.55252060894</v>
+        <v>-277043.92564576032</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-30.110854606041201</v>
+        <v>-29.894437347253174</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12222,17 +12222,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-52.92420109113057</v>
+        <v>-52.954281409581498</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-5.7107883162730612E-3</v>
+        <v>-5.7140341343981859E-3</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-5.7107883162730612E-3</v>
+        <v>-5.7140341343981859E-3</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12244,23 +12244,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>83.218945453487862</v>
+        <v>83.559817915086626</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>97.904641709985725</v>
+        <v>98.305668135396033</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>97.904641709985725</v>
+        <v>98.305668135396033</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>97.904641709985725</v>
+        <v>98.305668135396033</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>134.46388909021294</v>
+        <v>134.91763561574206</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12299,23 +12299,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>28.447779732934357</v>
+        <v>28.454436313098228</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>33.467976156393362</v>
+        <v>33.475807427174388</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>33.467976156393362</v>
+        <v>33.475807427174388</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>33.467976156393362</v>
+        <v>33.475807427174388</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>43.025486566523064</v>
+        <v>43.035554227448046</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12354,23 +12354,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>55.833362593211106</v>
+        <v>56.007127114092427</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>65.686308933189537</v>
+        <v>65.89073778128521</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>65.686308933189537</v>
+        <v>65.89073778128521</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>65.686308933189537</v>
+        <v>65.89073778128521</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>88.744687828368001</v>
+        <v>88.976594921595051</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0700.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0700.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6067E09-F2DA-43A8-B2F3-6C83D3ACE38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0403E7-CB14-4294-B89C-867540786B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3652,11 +3652,11 @@
       </c>
       <c r="C44" s="81">
         <f>3.4/Exchange_Rate</f>
-        <v>3.1942648544635741</v>
+        <v>3.2031785380101305</v>
       </c>
       <c r="D44" s="81">
         <f>2.4/Exchange_Rate</f>
-        <v>2.2547751913860523</v>
+        <v>2.2610672033012689</v>
       </c>
       <c r="E44" s="81"/>
       <c r="F44" s="81"/>
@@ -3674,11 +3674,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2046332046332056E-3</v>
+        <v>9.1447014523937595E-3</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7915057915057912E-3</v>
+        <v>6.4550833781603012E-3</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4334,16 +4334,16 @@
       </c>
       <c r="C98" s="104">
         <f>C44</f>
-        <v>3.1942648544635741</v>
+        <v>3.2031785380101305</v>
       </c>
       <c r="D98" s="105"/>
       <c r="E98" s="106">
         <f>F98</f>
-        <v>3.1942648544635741</v>
+        <v>3.2031785380101305</v>
       </c>
       <c r="F98" s="106">
         <f>C98</f>
-        <v>3.1942648544635741</v>
+        <v>3.2031785380101305</v>
       </c>
     </row>
   </sheetData>
@@ -4468,27 +4468,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0700.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>414.4</v>
+        <v>371.8</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4498,40 +4498,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>騰訊控股</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>9267407258</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>3840413.5677151997</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>3445622.0185244</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4554,11 +4554,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4578,7 +4578,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.8896512696904977</v>
+        <v>3.4995364999824985</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.527665681574753</v>
+        <v>31.064693962006146</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="G25" s="44">
         <f>Fin_Analysis!I88</f>
-        <v>0.28328683232952262</v>
+        <v>0.28407735199252526</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2046332046332056E-3</v>
+        <v>9.1447014523937595E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4817,10 +4817,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4828,22 +4828,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>83.559817915086626</v>
+        <v>87.239097861589997</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>155.15528095810336</v>
+        <v>160.54542094275968</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>98.305668135396033</v>
-      </c>
-      <c r="G29" s="314">
+        <v>102.63423277834117</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>134.91763561574206</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>139.6047138632693</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5826,15 +5826,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10177,11 +10177,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-260329.65436260935</v>
+        <v>-234224.73443282887</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>1.2806495216808693</v>
+        <v>1.2525069986565598</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11269,11 +11269,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.8896512696904977</v>
+        <v>3.4995364999824985</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>260279.90436260935</v>
+        <v>234174.98443282887</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11309,7 +11309,7 @@
         <f>I15+I34</f>
         <v>312960</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11320,11 +11320,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11336,11 +11336,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-5.7140341343981859E-3</v>
+        <v>-5.6981333372856128E-3</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-5.7140341343981859E-3</v>
+        <v>-5.6981333372856128E-3</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-5.7140341343981859E-3</v>
+        <v>-5.6981333372856128E-3</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11981,17 +11981,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8962282281759847E-2</v>
+        <v>3.2190885293222456E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8962282281759847E-2</v>
+        <v>3.2190885293222456E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8962282281759847E-2</v>
+        <v>3.2190885293222456E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12002,27 +12002,27 @@
       </c>
       <c r="C88" s="234">
         <f>Inputs!C44</f>
-        <v>3.1942648544635741</v>
+        <v>3.2031785380101305</v>
       </c>
       <c r="D88" s="235">
         <f>C88/C86</f>
-        <v>0.28328683232952262</v>
+        <v>0.28407735199252526</v>
       </c>
       <c r="E88" s="255">
         <f>Inputs!E98</f>
-        <v>3.1942648544635741</v>
+        <v>3.2031785380101305</v>
       </c>
       <c r="F88" s="235">
         <f>E88/E86</f>
-        <v>0.28328683232952262</v>
+        <v>0.28407735199252526</v>
       </c>
       <c r="H88" s="255">
         <f>Inputs!F98</f>
-        <v>3.1942648544635741</v>
+        <v>3.2031785380101305</v>
       </c>
       <c r="I88" s="235">
         <f>H88/H86</f>
-        <v>0.28328683232952262</v>
+        <v>0.28407735199252526</v>
       </c>
       <c r="K88" s="75"/>
     </row>
@@ -12032,17 +12032,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2046332046332056E-3</v>
+        <v>9.1447014523937595E-3</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2046332046332056E-3</v>
+        <v>9.1447014523937595E-3</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2046332046332056E-3</v>
+        <v>9.1447014523937595E-3</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12102,14 +12102,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>224.23277962122643</v>
+        <v>226.42852346183352</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>224.23277962122643</v>
+        <v>226.42852346183352</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12130,14 +12130,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.549396413924406</v>
+        <v>58.768072089794515</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>58.549396413924406</v>
+        <v>58.768072089794515</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12180,21 +12180,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1188135.5423076784</v>
+        <v>1199770.0647144171</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>128.20581951678361</v>
+        <v>129.46124318414161</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>128.20581951678361</v>
+        <v>129.46124318414161</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>164.81778699712962</v>
+        <v>166.43172426906975</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12204,14 +12204,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-277043.92564576032</v>
+        <v>-248564.02402290946</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-29.894437347253174</v>
+        <v>-26.82131227246315</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12222,17 +12222,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-52.954281409581498</v>
+        <v>-52.806922247012452</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-5.7140341343981859E-3</v>
+        <v>-5.6981333372856128E-3</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-5.7140341343981859E-3</v>
+        <v>-5.6981333372856128E-3</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12244,23 +12244,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>83.559817915086626</v>
+        <v>87.239097861589997</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>98.305668135396033</v>
+        <v>102.63423277834117</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>98.305668135396033</v>
+        <v>102.63423277834117</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>98.305668135396033</v>
+        <v>102.63423277834117</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>134.91763561574206</v>
+        <v>139.6047138632693</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12299,23 +12299,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>28.454436313098228</v>
+        <v>28.560710561397563</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>33.475807427174388</v>
+        <v>33.600835954585371</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>33.475807427174388</v>
+        <v>33.600835954585371</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>33.475807427174388</v>
+        <v>33.600835954585371</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>43.035554227448046</v>
+        <v>43.196287377293018</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12354,23 +12354,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>56.007127114092427</v>
+        <v>57.899904211493777</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>65.89073778128521</v>
+        <v>68.117534366463275</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>65.89073778128521</v>
+        <v>68.117534366463275</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>65.89073778128521</v>
+        <v>68.117534366463275</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>88.976594921595051</v>
+        <v>91.40050062028115</v>
       </c>
       <c r="K106" s="75"/>
     </row>
